--- a/PhuongAnThiCong-Ngay.xlsx
+++ b/PhuongAnThiCong-Ngay.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\ThucTran\HSTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThucTran\ThuLoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207D91E3-1697-4422-9C14-BD7F444F3DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -21,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DS_CongNhan!$C$1:$L$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">KhaoSatHienTruong!$A$1:$Y$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">KhaoSatHienTruong!$A$1:$Y$110</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NhanSu!$C$1:$Q$55</definedName>
     <definedName name="data">Data!$A:$Z</definedName>
     <definedName name="HoaDon">#REF!</definedName>
@@ -29,7 +30,7 @@
     <definedName name="NhanSu">NhanSu!$D:$I</definedName>
     <definedName name="tab">REPT(" ",10)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,14 +45,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="378">
   <si>
     <t>STT</t>
   </si>
@@ -1246,15 +1247,39 @@
   <si>
     <t>Tiếp địa trung thế tại trụ 002 Nhánh rẽ Trang Trại Nguyễn Đăng Nam</t>
   </si>
+  <si>
+    <t>Điện lực Cẩm Mỹ</t>
+  </si>
+  <si>
+    <t>Nhánh rẽ Láng Me 5B</t>
+  </si>
+  <si>
+    <t>Khắc phục tồn tại công trình ĐTXD Nhánh rẽ Láng Me 5B, C</t>
+  </si>
+  <si>
+    <t>Từ trụ 120 đến trụ 135 Nhánh rẽ Láng Me 5B</t>
+  </si>
+  <si>
+    <t>Cắt 3xFCO Nhánh rẽ Láng Me 5 từ 7h30 đến 9g30.
+Cắt 3xFCO Nhánh rẽ Láng Me 5B từ 9h30 đến 15g00.
+Tiếp địa trung thế tại trụ 121
+Tiếp địa hạ thế tại trụ TBA Nhánh rẽ Láng Me 5B</t>
+  </si>
+  <si>
+    <t>Tiếp địa trung thế tại trụ 135</t>
+  </si>
+  <si>
+    <t>Khắc phục tồn tại công trình ĐTXD Nhánh rẽ Láng Me 5B, 5C</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="00"/>
-    <numFmt numFmtId="165" formatCode="dd/mm"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="00"/>
+    <numFmt numFmtId="166" formatCode="dd/mm"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1480,9 +1505,9 @@
   </borders>
   <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="164" fontId="6" fillId="1" borderId="3" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="165" fontId="6" fillId="1" borderId="3" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -1508,17 +1533,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1566,7 +1591,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1598,13 +1623,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1690,36 +1715,36 @@
     </xf>
   </cellXfs>
   <cellStyles count="30">
-    <cellStyle name="Comma 2" xfId="1"/>
-    <cellStyle name="Comma 2 2" xfId="20"/>
-    <cellStyle name="Comma 3" xfId="19"/>
-    <cellStyle name="Comma 3 2" xfId="28"/>
-    <cellStyle name="Comma 4" xfId="21"/>
-    <cellStyle name="Comma 5" xfId="29"/>
-    <cellStyle name="DUNG" xfId="2"/>
-    <cellStyle name="LIEM" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma 3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Comma 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma 5" xfId="29" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="DUNG" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="LIEM" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 2 2" xfId="5"/>
-    <cellStyle name="Normal 2 3" xfId="6"/>
-    <cellStyle name="Normal 2 3 2" xfId="24"/>
-    <cellStyle name="Normal 3" xfId="7"/>
-    <cellStyle name="Normal 3 2" xfId="22"/>
-    <cellStyle name="Normal 4" xfId="8"/>
-    <cellStyle name="Normal 4 2" xfId="9"/>
-    <cellStyle name="Normal 4 3" xfId="10"/>
-    <cellStyle name="Normal 4 3 2" xfId="25"/>
-    <cellStyle name="Normal 5" xfId="11"/>
-    <cellStyle name="Normal 6" xfId="12"/>
-    <cellStyle name="Normal 6 2" xfId="13"/>
-    <cellStyle name="Normal 6 2 2" xfId="26"/>
-    <cellStyle name="Normal 7" xfId="14"/>
-    <cellStyle name="Normal 8" xfId="23"/>
-    <cellStyle name="Normal 9" xfId="15"/>
-    <cellStyle name="Normal 9 2" xfId="27"/>
-    <cellStyle name="Percent 2" xfId="16"/>
-    <cellStyle name="Style 1" xfId="17"/>
-    <cellStyle name="THUC" xfId="18"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="24" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 3" xfId="7" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 4" xfId="8" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 4 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 4 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 5" xfId="11" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 6" xfId="12" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 6 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 7" xfId="14" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 8" xfId="23" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 9" xfId="15" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 9 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Percent 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Style 1" xfId="17" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="THUC" xfId="18" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
   </cellStyles>
   <dxfs count="28">
     <dxf>
@@ -2096,6 +2121,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2131,6 +2173,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2306,38 +2365,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="24.9" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="98.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="98.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="26" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.28515625" customWidth="1"/>
-    <col min="17" max="17" width="26.7109375" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="21" width="8.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="32" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="25.33203125" customWidth="1"/>
+    <col min="17" max="17" width="26.6640625" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="21" width="8.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="32" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="9" customFormat="1" ht="24.95" customHeight="1">
+    <row r="1" spans="1:25" s="9" customFormat="1" ht="24.9" customHeight="1">
       <c r="A1" s="8">
         <f>ROW()</f>
         <v>1</v>
@@ -2415,11 +2474,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="9" customFormat="1" ht="24.95" customHeight="1">
+    <row r="2" spans="1:25" s="9" customFormat="1" ht="24.9" customHeight="1">
       <c r="A2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:25" ht="24.95" customHeight="1">
+    <row r="3" spans="1:25" ht="24.9" customHeight="1">
       <c r="A3" s="7">
         <f>ROW()</f>
         <v>3</v>
@@ -2467,7 +2526,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="24.95" customHeight="1">
+    <row r="4" spans="1:25" ht="24.9" customHeight="1">
       <c r="A4" s="7">
         <f>ROW()</f>
         <v>4</v>
@@ -2609,7 +2668,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="24.95" customHeight="1">
+    <row r="6" spans="1:25" ht="24.9" customHeight="1">
       <c r="A6" s="7">
         <f>ROW()</f>
         <v>6</v>
@@ -2631,7 +2690,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="24.95" customHeight="1">
+    <row r="7" spans="1:25" ht="24.9" customHeight="1">
       <c r="A7" s="7">
         <f>ROW()</f>
         <v>7</v>
@@ -2650,7 +2709,7 @@
         <v>44080</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="24.95" customHeight="1">
+    <row r="8" spans="1:25" ht="24.9" customHeight="1">
       <c r="A8" s="7">
         <f>ROW()</f>
         <v>8</v>
@@ -2669,7 +2728,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="24.95" customHeight="1">
+    <row r="9" spans="1:25" ht="24.9" customHeight="1">
       <c r="A9" s="7">
         <f>ROW()</f>
         <v>9</v>
@@ -2696,34 +2755,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3"/>
-    <col min="2" max="2" width="26.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="26.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="3"/>
-    <col min="15" max="15" width="13.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="3"/>
+    <col min="4" max="4" width="19.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="15" max="15" width="13.6640625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="34.15" customHeight="1">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="34.200000000000003" customHeight="1">
       <c r="A1" s="1">
         <f>ROW()</f>
         <v>1</v>
@@ -2821,7 +2880,7 @@
         <v>BanGiao3</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="34.15" customHeight="1">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="34.200000000000003" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>111</v>
       </c>
@@ -3130,28 +3189,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="14"/>
-    <col min="3" max="3" width="6.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="33" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="14"/>
+    <col min="3" max="3" width="6.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="33" customWidth="1"/>
     <col min="6" max="7" width="18" style="22" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="11.140625" style="14" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="11.109375" style="14" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="19" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="14"/>
-    <col min="12" max="12" width="26.28515625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="14" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="14"/>
+    <col min="10" max="10" width="11.109375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="14"/>
+    <col min="12" max="12" width="26.33203125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="14" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" s="10" customFormat="1" ht="33" customHeight="1">
@@ -3471,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="16.5">
+    <row r="11" spans="2:14" ht="16.8">
       <c r="B11" s="13"/>
       <c r="C11" s="12">
         <f t="shared" si="2"/>
@@ -4028,13 +4087,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:L26"/>
+  <autoFilter ref="C1:L26" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="C1:Q55"/>
   <sheetViews>
@@ -4042,15 +4101,15 @@
       <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:17" s="42" customFormat="1" ht="30.6" customHeight="1">
@@ -4103,7 +4162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="3:17" ht="16.5" hidden="1">
+    <row r="2" spans="3:17" ht="16.8" hidden="1">
       <c r="C2" t="s">
         <v>66</v>
       </c>
@@ -4128,7 +4187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:17" ht="16.5" hidden="1">
+    <row r="3" spans="3:17" ht="16.8" hidden="1">
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -4153,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:17" ht="16.5">
+    <row r="4" spans="3:17" ht="16.8">
       <c r="C4" t="s">
         <v>66</v>
       </c>
@@ -4188,7 +4247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="16.5">
+    <row r="5" spans="3:17" ht="16.8">
       <c r="C5" t="s">
         <v>66</v>
       </c>
@@ -4226,7 +4285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="16.5">
+    <row r="6" spans="3:17" ht="16.8">
       <c r="C6" t="s">
         <v>66</v>
       </c>
@@ -4261,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="16.5" hidden="1">
+    <row r="7" spans="3:17" ht="16.8" hidden="1">
       <c r="C7" t="s">
         <v>66</v>
       </c>
@@ -4293,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:17" ht="16.5" hidden="1">
+    <row r="8" spans="3:17" ht="16.8" hidden="1">
       <c r="C8" t="s">
         <v>66</v>
       </c>
@@ -4328,7 +4387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:17" ht="16.5">
+    <row r="9" spans="3:17" ht="16.8">
       <c r="C9" t="s">
         <v>66</v>
       </c>
@@ -4366,7 +4425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:17" ht="16.5">
+    <row r="10" spans="3:17" ht="16.8">
       <c r="C10" t="s">
         <v>66</v>
       </c>
@@ -4404,7 +4463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:17" ht="16.5">
+    <row r="11" spans="3:17" ht="16.8">
       <c r="C11" t="s">
         <v>66</v>
       </c>
@@ -4442,7 +4501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:17" ht="16.5">
+    <row r="12" spans="3:17" ht="16.8">
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -4480,7 +4539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:17" ht="16.5">
+    <row r="13" spans="3:17" ht="16.8">
       <c r="C13" t="s">
         <v>66</v>
       </c>
@@ -4518,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:17" ht="16.5" hidden="1">
+    <row r="14" spans="3:17" ht="16.8" hidden="1">
       <c r="C14" t="s">
         <v>66</v>
       </c>
@@ -4553,7 +4612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:17" ht="16.5" hidden="1">
+    <row r="15" spans="3:17" ht="16.8" hidden="1">
       <c r="C15" t="s">
         <v>66</v>
       </c>
@@ -4588,7 +4647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:17" ht="16.5" hidden="1">
+    <row r="16" spans="3:17" ht="16.8" hidden="1">
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -4620,7 +4679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:14" ht="16.5" hidden="1">
+    <row r="17" spans="3:14" ht="16.8" hidden="1">
       <c r="C17" t="s">
         <v>66</v>
       </c>
@@ -4652,7 +4711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:14" ht="16.5" hidden="1">
+    <row r="18" spans="3:14" ht="16.8" hidden="1">
       <c r="C18" t="s">
         <v>66</v>
       </c>
@@ -4684,7 +4743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="16.5">
+    <row r="19" spans="3:14" ht="16.8">
       <c r="C19" t="s">
         <v>66</v>
       </c>
@@ -4722,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:14" ht="16.5" hidden="1">
+    <row r="20" spans="3:14" ht="16.8" hidden="1">
       <c r="C20" t="s">
         <v>66</v>
       </c>
@@ -4757,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:14" ht="16.5">
+    <row r="21" spans="3:14" ht="16.8">
       <c r="C21" t="s">
         <v>66</v>
       </c>
@@ -4795,7 +4854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:14" ht="16.5" hidden="1">
+    <row r="22" spans="3:14" ht="16.8" hidden="1">
       <c r="C22" t="s">
         <v>66</v>
       </c>
@@ -4830,7 +4889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:14" ht="16.5" hidden="1">
+    <row r="23" spans="3:14" ht="16.8" hidden="1">
       <c r="C23" t="s">
         <v>66</v>
       </c>
@@ -4865,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:14" ht="16.5" hidden="1">
+    <row r="24" spans="3:14" ht="16.8" hidden="1">
       <c r="D24" s="15">
         <f>SUM($J$2:J24)</f>
         <v>10</v>
@@ -4888,7 +4947,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="3:14" ht="16.5" hidden="1">
+    <row r="25" spans="3:14" ht="16.8" hidden="1">
       <c r="D25" s="15">
         <f>SUM($J$2:J25)</f>
         <v>10</v>
@@ -4909,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:14" ht="16.5" hidden="1">
+    <row r="26" spans="3:14" ht="16.8" hidden="1">
       <c r="D26" s="15">
         <f>SUM($J$2:J26)</f>
         <v>10</v>
@@ -4935,7 +4994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:14" ht="16.5" hidden="1">
+    <row r="27" spans="3:14" ht="16.8" hidden="1">
       <c r="D27" s="15">
         <f>SUM($J$2:J27)</f>
         <v>10</v>
@@ -4961,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:14" ht="16.5" hidden="1">
+    <row r="28" spans="3:14" ht="16.8" hidden="1">
       <c r="D28" s="15">
         <f>SUM($J$2:J28)</f>
         <v>10</v>
@@ -4982,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:14" ht="16.5" hidden="1">
+    <row r="29" spans="3:14" ht="16.8" hidden="1">
       <c r="D29" s="15">
         <f>SUM($J$2:J29)</f>
         <v>10</v>
@@ -5001,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:14" ht="16.5" hidden="1">
+    <row r="30" spans="3:14" ht="16.8" hidden="1">
       <c r="D30" s="15">
         <f>SUM($J$2:J30)</f>
         <v>10</v>
@@ -5022,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:14" ht="16.5" hidden="1">
+    <row r="31" spans="3:14" ht="16.8" hidden="1">
       <c r="D31" s="15">
         <f>SUM($J$2:J31)</f>
         <v>10</v>
@@ -5043,7 +5102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:14" ht="16.5" hidden="1">
+    <row r="32" spans="3:14" ht="16.8" hidden="1">
       <c r="D32" s="15">
         <f>SUM($J$2:J32)</f>
         <v>10</v>
@@ -5064,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="16.5" hidden="1">
+    <row r="33" spans="4:12" ht="16.8" hidden="1">
       <c r="D33" s="15">
         <f>SUM($J$2:J33)</f>
         <v>10</v>
@@ -5085,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:12" ht="16.5" hidden="1">
+    <row r="34" spans="4:12" ht="16.8" hidden="1">
       <c r="D34" s="15">
         <f>SUM($J$2:J34)</f>
         <v>10</v>
@@ -5106,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="16.5" hidden="1">
+    <row r="35" spans="4:12" ht="16.8" hidden="1">
       <c r="D35" s="15">
         <f>SUM($J$2:J35)</f>
         <v>10</v>
@@ -5133,7 +5192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="16.5" hidden="1">
+    <row r="36" spans="4:12" ht="16.8" hidden="1">
       <c r="D36" s="15">
         <f>SUM($J$2:J36)</f>
         <v>10</v>
@@ -5154,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:12" ht="16.5" hidden="1">
+    <row r="37" spans="4:12" ht="16.8" hidden="1">
       <c r="D37" s="15">
         <f>SUM($J$2:J37)</f>
         <v>10</v>
@@ -5171,7 +5230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="16.5" hidden="1">
+    <row r="38" spans="4:12" ht="16.8" hidden="1">
       <c r="D38" s="15">
         <f>SUM($J$2:J38)</f>
         <v>10</v>
@@ -5192,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:12" ht="16.5" hidden="1">
+    <row r="39" spans="4:12" ht="16.8" hidden="1">
       <c r="D39" s="15">
         <f>SUM($J$2:J39)</f>
         <v>10</v>
@@ -5209,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:12" ht="16.5" hidden="1">
+    <row r="40" spans="4:12" ht="16.8" hidden="1">
       <c r="D40" s="15">
         <f>SUM($J$2:J40)</f>
         <v>10</v>
@@ -5235,7 +5294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="4:12" ht="16.5" hidden="1">
+    <row r="41" spans="4:12" ht="16.8" hidden="1">
       <c r="D41" s="15">
         <f>SUM($J$2:J41)</f>
         <v>10</v>
@@ -5256,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:12" ht="16.5" hidden="1">
+    <row r="42" spans="4:12" ht="16.8" hidden="1">
       <c r="D42" s="15">
         <f>SUM($J$2:J42)</f>
         <v>10</v>
@@ -5277,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:12" ht="16.5" hidden="1">
+    <row r="43" spans="4:12" ht="16.8" hidden="1">
       <c r="D43" s="15">
         <f>SUM($J$2:J43)</f>
         <v>10</v>
@@ -5298,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:12" ht="16.5" hidden="1">
+    <row r="44" spans="4:12" ht="16.8" hidden="1">
       <c r="D44" s="15">
         <f>SUM($J$2:J44)</f>
         <v>10</v>
@@ -5319,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:12" ht="16.5" hidden="1">
+    <row r="45" spans="4:12" ht="16.8" hidden="1">
       <c r="D45" s="15">
         <f>SUM($J$2:J45)</f>
         <v>10</v>
@@ -5340,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:12" ht="16.5" hidden="1">
+    <row r="46" spans="4:12" ht="16.8" hidden="1">
       <c r="D46" s="15">
         <f>SUM($J$2:J46)</f>
         <v>10</v>
@@ -5363,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="4:12" ht="16.5" hidden="1">
+    <row r="47" spans="4:12" ht="16.8" hidden="1">
       <c r="D47" s="15">
         <f>SUM($J$2:J47)</f>
         <v>10</v>
@@ -5384,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:12" ht="16.5" hidden="1">
+    <row r="48" spans="4:12" ht="16.8" hidden="1">
       <c r="D48" s="15">
         <f>SUM($J$2:J48)</f>
         <v>10</v>
@@ -5407,7 +5466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="4:12" ht="16.5" hidden="1">
+    <row r="49" spans="4:12" ht="16.8" hidden="1">
       <c r="D49" s="15">
         <f>SUM($J$2:J49)</f>
         <v>10</v>
@@ -5428,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:12" ht="16.5" hidden="1">
+    <row r="50" spans="4:12" ht="16.8" hidden="1">
       <c r="D50" s="15">
         <f>SUM($J$2:J50)</f>
         <v>10</v>
@@ -5449,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="4:12" ht="16.5" hidden="1">
+    <row r="51" spans="4:12" ht="16.8" hidden="1">
       <c r="D51" s="15">
         <f>SUM($J$2:J51)</f>
         <v>10</v>
@@ -5470,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:12" ht="16.5" hidden="1">
+    <row r="52" spans="4:12" ht="16.8" hidden="1">
       <c r="D52" s="15">
         <f>SUM($J$2:J52)</f>
         <v>10</v>
@@ -5496,7 +5555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="4:12" ht="16.5" hidden="1">
+    <row r="53" spans="4:12" ht="16.8" hidden="1">
       <c r="D53" s="15">
         <f>SUM($J$2:J53)</f>
         <v>10</v>
@@ -5515,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="4:12" ht="16.5" hidden="1">
+    <row r="54" spans="4:12" ht="16.8" hidden="1">
       <c r="D54" s="15">
         <f>SUM($J$2:J54)</f>
         <v>10</v>
@@ -5534,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="4:12" ht="16.5" hidden="1">
+    <row r="55" spans="4:12" ht="16.8" hidden="1">
       <c r="D55" s="15">
         <f>SUM($J$2:J55)</f>
         <v>10</v>
@@ -5561,7 +5620,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:Q55">
+  <autoFilter ref="C1:Q55" xr:uid="{00000000-0009-0000-0000-000003000000}">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5594,45 +5653,44 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:X110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="44" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="56.5703125" style="45" customWidth="1"/>
-    <col min="7" max="7" width="41.85546875" style="48" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" style="60" customWidth="1"/>
+    <col min="6" max="6" width="56.5546875" style="45" customWidth="1"/>
+    <col min="7" max="7" width="41.88671875" style="48" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" style="60" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="39.7109375" style="45" customWidth="1"/>
-    <col min="12" max="12" width="39.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="26" customWidth="1"/>
-    <col min="15" max="15" width="36.7109375" style="26" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" style="26" customWidth="1"/>
-    <col min="17" max="17" width="43.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="35" customWidth="1"/>
-    <col min="19" max="19" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.28515625" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" style="26" customWidth="1"/>
-    <col min="22" max="22" width="41.7109375" style="26" customWidth="1"/>
+    <col min="11" max="11" width="39.6640625" style="45" customWidth="1"/>
+    <col min="12" max="12" width="39.6640625" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" style="26" customWidth="1"/>
+    <col min="15" max="15" width="36.6640625" style="26" customWidth="1"/>
+    <col min="16" max="16" width="21.88671875" style="26" customWidth="1"/>
+    <col min="17" max="17" width="43.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" style="35" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.33203125" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" style="26" customWidth="1"/>
+    <col min="22" max="22" width="41.6640625" style="26" customWidth="1"/>
     <col min="23" max="23" width="25" style="26" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="26" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875"/>
+    <col min="24" max="24" width="12.5546875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="36" customFormat="1" ht="30">
+    <row r="1" spans="1:24" s="36" customFormat="1" ht="28.8">
       <c r="A1" s="36" t="s">
         <v>66</v>
       </c>
@@ -5797,688 +5855,658 @@
       <c r="I3" s="58"/>
       <c r="O3" s="37"/>
     </row>
-    <row r="4" spans="1:24" s="36" customFormat="1" ht="30">
+    <row r="4" spans="1:24" s="36" customFormat="1" ht="57.6">
       <c r="B4" s="36" t="s">
-        <v>332</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>306</v>
+        <v>371</v>
+      </c>
+      <c r="C4" s="56">
+        <v>44259</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>283</v>
+        <v>46</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="F4" s="41" t="str">
-        <f>"Sửa chữa lớn đường dây hạ thế "&amp;E4</f>
-        <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 1</v>
-      </c>
-      <c r="G4" s="50" t="str">
-        <f>E4</f>
-        <v>Lưới điện hạ thế TBA Cây Da 1</v>
-      </c>
-      <c r="H4" s="36" t="str">
-        <f>RIGHT(F4,LEN(F4)-SEARCH("TBA ",F4,1)-2)</f>
-        <v xml:space="preserve"> Cây Da 1</v>
+        <v>372</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>231</v>
       </c>
       <c r="I4" s="53" t="str">
         <f>"FCO + MCCB TBA "&amp;H4</f>
-        <v>FCO + MCCB TBA  Cây Da 1</v>
+        <v xml:space="preserve">FCO + MCCB TBA Từ 07 giờ 30 phút – 15 giờ 00 phút. </v>
       </c>
       <c r="J4" s="6" t="s">
         <v>149</v>
       </c>
       <c r="K4" s="41" t="str">
         <f>"Cắt "&amp;I4</f>
-        <v>Cắt FCO + MCCB TBA  Cây Da 1</v>
+        <v xml:space="preserve">Cắt FCO + MCCB TBA Từ 07 giờ 30 phút – 15 giờ 00 phút. </v>
       </c>
       <c r="L4" s="41" t="str">
         <f>"Tiếp địa hạ thế tại trụ TBA "&amp;H4</f>
+        <v xml:space="preserve">Tiếp địa hạ thế tại trụ TBA Từ 07 giờ 30 phút – 15 giờ 00 phút. </v>
+      </c>
+      <c r="O4" s="51" t="str">
+        <f t="shared" ref="O4" si="0">K4&amp;CHAR(10)&amp;L4</f>
+        <v xml:space="preserve">Cắt FCO + MCCB TBA Từ 07 giờ 30 phút – 15 giờ 00 phút. 
+Tiếp địa hạ thế tại trụ TBA Từ 07 giờ 30 phút – 15 giờ 00 phút. </v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="36" customFormat="1" ht="28.8">
+      <c r="B5" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" s="41" t="str">
+        <f>"Sửa chữa lớn đường dây hạ thế "&amp;E5</f>
+        <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 1</v>
+      </c>
+      <c r="G5" s="50" t="str">
+        <f>E5</f>
+        <v>Lưới điện hạ thế TBA Cây Da 1</v>
+      </c>
+      <c r="H5" s="36" t="str">
+        <f>RIGHT(F5,LEN(F5)-SEARCH("TBA ",F5,1)-2)</f>
+        <v xml:space="preserve"> Cây Da 1</v>
+      </c>
+      <c r="I5" s="53" t="str">
+        <f>"FCO + MCCB TBA "&amp;H5</f>
+        <v>FCO + MCCB TBA  Cây Da 1</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="41" t="str">
+        <f>"Cắt "&amp;I5</f>
+        <v>Cắt FCO + MCCB TBA  Cây Da 1</v>
+      </c>
+      <c r="L5" s="41" t="str">
+        <f>"Tiếp địa hạ thế tại trụ TBA "&amp;H5</f>
         <v>Tiếp địa hạ thế tại trụ TBA  Cây Da 1</v>
       </c>
-      <c r="O4" s="51" t="str">
-        <f t="shared" ref="O4:O15" si="0">K4&amp;CHAR(10)&amp;L4</f>
+      <c r="O5" s="51" t="str">
+        <f t="shared" ref="O5:O16" si="1">K5&amp;CHAR(10)&amp;L5</f>
         <v>Cắt FCO + MCCB TBA  Cây Da 1
 Tiếp địa hạ thế tại trụ TBA  Cây Da 1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="36" customFormat="1" ht="30">
-      <c r="C5" s="56" t="s">
+    <row r="6" spans="1:24" s="36" customFormat="1" ht="28.8">
+      <c r="C6" s="56" t="s">
         <v>284</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D6" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E6" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="F5" s="41" t="str">
-        <f t="shared" ref="F5:F15" si="1">"Sửa chữa lớn đường dây hạ thế "&amp;E5</f>
+      <c r="F6" s="41" t="str">
+        <f t="shared" ref="F6:F16" si="2">"Sửa chữa lớn đường dây hạ thế "&amp;E6</f>
         <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 2</v>
       </c>
-      <c r="G5" s="50" t="str">
-        <f t="shared" ref="G5:G15" si="2">E5</f>
+      <c r="G6" s="50" t="str">
+        <f t="shared" ref="G6:G16" si="3">E6</f>
         <v>Lưới điện hạ thế TBA Cây Da 2</v>
       </c>
-      <c r="H5" s="36" t="str">
-        <f t="shared" ref="H5:H15" si="3">RIGHT(F5,LEN(F5)-SEARCH("TBA ",F5,1)-2)</f>
+      <c r="H6" s="36" t="str">
+        <f t="shared" ref="H6:H16" si="4">RIGHT(F6,LEN(F6)-SEARCH("TBA ",F6,1)-2)</f>
         <v xml:space="preserve"> Cây Da 2</v>
       </c>
-      <c r="I5" s="53" t="str">
-        <f t="shared" ref="I5:I15" si="4">"FCO + MCCB TBA "&amp;H5</f>
+      <c r="I6" s="53" t="str">
+        <f t="shared" ref="I6:I16" si="5">"FCO + MCCB TBA "&amp;H6</f>
         <v>FCO + MCCB TBA  Cây Da 2</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="K5" s="41" t="str">
-        <f t="shared" ref="K5:K15" si="5">"Cắt "&amp;I5</f>
+      <c r="K6" s="41" t="str">
+        <f t="shared" ref="K6:K16" si="6">"Cắt "&amp;I6</f>
         <v>Cắt FCO + MCCB TBA  Cây Da 2</v>
       </c>
-      <c r="L5" s="41" t="str">
-        <f t="shared" ref="L5:L15" si="6">"Tiếp địa hạ thế tại trụ TBA "&amp;H5</f>
+      <c r="L6" s="41" t="str">
+        <f t="shared" ref="L6:L16" si="7">"Tiếp địa hạ thế tại trụ TBA "&amp;H6</f>
         <v>Tiếp địa hạ thế tại trụ TBA  Cây Da 2</v>
       </c>
-      <c r="O5" s="51" t="str">
-        <f t="shared" si="0"/>
+      <c r="O6" s="51" t="str">
+        <f t="shared" si="1"/>
         <v>Cắt FCO + MCCB TBA  Cây Da 2
 Tiếp địa hạ thế tại trụ TBA  Cây Da 2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="36" customFormat="1" ht="30">
-      <c r="C6" s="56" t="s">
+    <row r="7" spans="1:24" s="36" customFormat="1" ht="28.8">
+      <c r="C7" s="56" t="s">
         <v>285</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D7" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E7" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="F6" s="41" t="str">
+      <c r="F7" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 2A</v>
+      </c>
+      <c r="G7" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>Lưới điện hạ thế TBA Cây Da 2A</v>
+      </c>
+      <c r="H7" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Cây Da 2A</v>
+      </c>
+      <c r="I7" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>FCO + MCCB TBA  Cây Da 2A</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>Cắt FCO + MCCB TBA  Cây Da 2A</v>
+      </c>
+      <c r="L7" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa hạ thế tại trụ TBA  Cây Da 2A</v>
+      </c>
+      <c r="O7" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 2A</v>
-      </c>
-      <c r="G6" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v>Lưới điện hạ thế TBA Cây Da 2A</v>
-      </c>
-      <c r="H6" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Cây Da 2A</v>
-      </c>
-      <c r="I6" s="53" t="str">
-        <f t="shared" si="4"/>
-        <v>FCO + MCCB TBA  Cây Da 2A</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K6" s="41" t="str">
-        <f t="shared" si="5"/>
-        <v>Cắt FCO + MCCB TBA  Cây Da 2A</v>
-      </c>
-      <c r="L6" s="41" t="str">
-        <f t="shared" si="6"/>
-        <v>Tiếp địa hạ thế tại trụ TBA  Cây Da 2A</v>
-      </c>
-      <c r="O6" s="51" t="str">
-        <f t="shared" si="0"/>
         <v>Cắt FCO + MCCB TBA  Cây Da 2A
 Tiếp địa hạ thế tại trụ TBA  Cây Da 2A</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="36" customFormat="1" ht="30">
-      <c r="C7" s="56" t="s">
+    <row r="8" spans="1:24" s="36" customFormat="1" ht="28.8">
+      <c r="C8" s="56" t="s">
         <v>286</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D8" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E8" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="F7" s="41" t="str">
+      <c r="F8" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 3</v>
+      </c>
+      <c r="G8" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>Lưới điện hạ thế TBA Cây Da 3</v>
+      </c>
+      <c r="H8" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Cây Da 3</v>
+      </c>
+      <c r="I8" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>FCO + MCCB TBA  Cây Da 3</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>Cắt FCO + MCCB TBA  Cây Da 3</v>
+      </c>
+      <c r="L8" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa hạ thế tại trụ TBA  Cây Da 3</v>
+      </c>
+      <c r="O8" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 3</v>
-      </c>
-      <c r="G7" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v>Lưới điện hạ thế TBA Cây Da 3</v>
-      </c>
-      <c r="H7" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Cây Da 3</v>
-      </c>
-      <c r="I7" s="53" t="str">
-        <f t="shared" si="4"/>
-        <v>FCO + MCCB TBA  Cây Da 3</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K7" s="41" t="str">
-        <f t="shared" si="5"/>
-        <v>Cắt FCO + MCCB TBA  Cây Da 3</v>
-      </c>
-      <c r="L7" s="41" t="str">
-        <f t="shared" si="6"/>
-        <v>Tiếp địa hạ thế tại trụ TBA  Cây Da 3</v>
-      </c>
-      <c r="O7" s="51" t="str">
-        <f t="shared" si="0"/>
         <v>Cắt FCO + MCCB TBA  Cây Da 3
 Tiếp địa hạ thế tại trụ TBA  Cây Da 3</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="36" customFormat="1" ht="30">
-      <c r="C8" s="56" t="s">
+    <row r="9" spans="1:24" s="36" customFormat="1" ht="28.8">
+      <c r="C9" s="56" t="s">
         <v>287</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D9" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E9" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="F8" s="41" t="str">
+      <c r="F9" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 4</v>
+      </c>
+      <c r="G9" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>Lưới điện hạ thế TBA Cây Da 4</v>
+      </c>
+      <c r="H9" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Cây Da 4</v>
+      </c>
+      <c r="I9" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>FCO + MCCB TBA  Cây Da 4</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>Cắt FCO + MCCB TBA  Cây Da 4</v>
+      </c>
+      <c r="L9" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa hạ thế tại trụ TBA  Cây Da 4</v>
+      </c>
+      <c r="O9" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 4</v>
-      </c>
-      <c r="G8" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v>Lưới điện hạ thế TBA Cây Da 4</v>
-      </c>
-      <c r="H8" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Cây Da 4</v>
-      </c>
-      <c r="I8" s="53" t="str">
-        <f t="shared" si="4"/>
-        <v>FCO + MCCB TBA  Cây Da 4</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K8" s="41" t="str">
-        <f t="shared" si="5"/>
-        <v>Cắt FCO + MCCB TBA  Cây Da 4</v>
-      </c>
-      <c r="L8" s="41" t="str">
-        <f t="shared" si="6"/>
-        <v>Tiếp địa hạ thế tại trụ TBA  Cây Da 4</v>
-      </c>
-      <c r="O8" s="51" t="str">
-        <f t="shared" si="0"/>
         <v>Cắt FCO + MCCB TBA  Cây Da 4
 Tiếp địa hạ thế tại trụ TBA  Cây Da 4</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="36" customFormat="1" ht="30">
-      <c r="C9" s="56" t="s">
+    <row r="10" spans="1:24" s="36" customFormat="1" ht="28.8">
+      <c r="C10" s="56" t="s">
         <v>288</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D10" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E10" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="F9" s="41" t="str">
+      <c r="F10" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 5</v>
+      </c>
+      <c r="G10" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>Lưới điện hạ thế TBA Cây Da 5</v>
+      </c>
+      <c r="H10" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Cây Da 5</v>
+      </c>
+      <c r="I10" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>FCO + MCCB TBA  Cây Da 5</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>Cắt FCO + MCCB TBA  Cây Da 5</v>
+      </c>
+      <c r="L10" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa hạ thế tại trụ TBA  Cây Da 5</v>
+      </c>
+      <c r="O10" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 5</v>
-      </c>
-      <c r="G9" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v>Lưới điện hạ thế TBA Cây Da 5</v>
-      </c>
-      <c r="H9" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Cây Da 5</v>
-      </c>
-      <c r="I9" s="53" t="str">
-        <f t="shared" si="4"/>
-        <v>FCO + MCCB TBA  Cây Da 5</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K9" s="41" t="str">
-        <f t="shared" si="5"/>
-        <v>Cắt FCO + MCCB TBA  Cây Da 5</v>
-      </c>
-      <c r="L9" s="41" t="str">
-        <f t="shared" si="6"/>
-        <v>Tiếp địa hạ thế tại trụ TBA  Cây Da 5</v>
-      </c>
-      <c r="O9" s="51" t="str">
-        <f t="shared" si="0"/>
         <v>Cắt FCO + MCCB TBA  Cây Da 5
 Tiếp địa hạ thế tại trụ TBA  Cây Da 5</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="36" customFormat="1" ht="30">
-      <c r="C10" s="56" t="s">
+    <row r="11" spans="1:24" s="36" customFormat="1" ht="28.8">
+      <c r="C11" s="56" t="s">
         <v>289</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D11" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E11" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="F10" s="41" t="str">
+      <c r="F11" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 5A</v>
+      </c>
+      <c r="G11" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>Lưới điện hạ thế TBA Cây Da 5A</v>
+      </c>
+      <c r="H11" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Cây Da 5A</v>
+      </c>
+      <c r="I11" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>FCO + MCCB TBA  Cây Da 5A</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>Cắt FCO + MCCB TBA  Cây Da 5A</v>
+      </c>
+      <c r="L11" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa hạ thế tại trụ TBA  Cây Da 5A</v>
+      </c>
+      <c r="O11" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 5A</v>
-      </c>
-      <c r="G10" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v>Lưới điện hạ thế TBA Cây Da 5A</v>
-      </c>
-      <c r="H10" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Cây Da 5A</v>
-      </c>
-      <c r="I10" s="53" t="str">
-        <f t="shared" si="4"/>
-        <v>FCO + MCCB TBA  Cây Da 5A</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K10" s="41" t="str">
-        <f t="shared" si="5"/>
-        <v>Cắt FCO + MCCB TBA  Cây Da 5A</v>
-      </c>
-      <c r="L10" s="41" t="str">
-        <f t="shared" si="6"/>
-        <v>Tiếp địa hạ thế tại trụ TBA  Cây Da 5A</v>
-      </c>
-      <c r="O10" s="51" t="str">
-        <f t="shared" si="0"/>
         <v>Cắt FCO + MCCB TBA  Cây Da 5A
 Tiếp địa hạ thế tại trụ TBA  Cây Da 5A</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="36" customFormat="1" ht="30">
-      <c r="C11" s="56" t="s">
+    <row r="12" spans="1:24" s="36" customFormat="1" ht="28.8">
+      <c r="C12" s="56" t="s">
         <v>290</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D12" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E12" s="41" t="s">
         <v>299</v>
       </c>
-      <c r="F11" s="41" t="str">
+      <c r="F12" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 6</v>
+      </c>
+      <c r="G12" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>Lưới điện hạ thế TBA Cây Da 6</v>
+      </c>
+      <c r="H12" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Cây Da 6</v>
+      </c>
+      <c r="I12" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>FCO + MCCB TBA  Cây Da 6</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K12" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>Cắt FCO + MCCB TBA  Cây Da 6</v>
+      </c>
+      <c r="L12" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa hạ thế tại trụ TBA  Cây Da 6</v>
+      </c>
+      <c r="O12" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 6</v>
-      </c>
-      <c r="G11" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v>Lưới điện hạ thế TBA Cây Da 6</v>
-      </c>
-      <c r="H11" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Cây Da 6</v>
-      </c>
-      <c r="I11" s="53" t="str">
-        <f t="shared" si="4"/>
-        <v>FCO + MCCB TBA  Cây Da 6</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K11" s="41" t="str">
-        <f t="shared" si="5"/>
-        <v>Cắt FCO + MCCB TBA  Cây Da 6</v>
-      </c>
-      <c r="L11" s="41" t="str">
-        <f t="shared" si="6"/>
-        <v>Tiếp địa hạ thế tại trụ TBA  Cây Da 6</v>
-      </c>
-      <c r="O11" s="51" t="str">
-        <f t="shared" si="0"/>
         <v>Cắt FCO + MCCB TBA  Cây Da 6
 Tiếp địa hạ thế tại trụ TBA  Cây Da 6</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="36" customFormat="1" ht="30">
-      <c r="C12" s="56" t="s">
+    <row r="13" spans="1:24" s="36" customFormat="1" ht="28.8">
+      <c r="C13" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D13" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E13" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="F12" s="41" t="str">
+      <c r="F13" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 6A</v>
+      </c>
+      <c r="G13" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>Lưới điện hạ thế TBA Cây Da 6A</v>
+      </c>
+      <c r="H13" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Cây Da 6A</v>
+      </c>
+      <c r="I13" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>FCO + MCCB TBA  Cây Da 6A</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>Cắt FCO + MCCB TBA  Cây Da 6A</v>
+      </c>
+      <c r="L13" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa hạ thế tại trụ TBA  Cây Da 6A</v>
+      </c>
+      <c r="O13" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 6A</v>
-      </c>
-      <c r="G12" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v>Lưới điện hạ thế TBA Cây Da 6A</v>
-      </c>
-      <c r="H12" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Cây Da 6A</v>
-      </c>
-      <c r="I12" s="53" t="str">
-        <f t="shared" si="4"/>
-        <v>FCO + MCCB TBA  Cây Da 6A</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K12" s="41" t="str">
-        <f t="shared" si="5"/>
-        <v>Cắt FCO + MCCB TBA  Cây Da 6A</v>
-      </c>
-      <c r="L12" s="41" t="str">
-        <f t="shared" si="6"/>
-        <v>Tiếp địa hạ thế tại trụ TBA  Cây Da 6A</v>
-      </c>
-      <c r="O12" s="51" t="str">
-        <f t="shared" si="0"/>
         <v>Cắt FCO + MCCB TBA  Cây Da 6A
 Tiếp địa hạ thế tại trụ TBA  Cây Da 6A</v>
       </c>
-      <c r="P12" s="36" t="s">
+      <c r="P13" s="36" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="41" customFormat="1" ht="30">
-      <c r="C13" s="56" t="s">
+    <row r="14" spans="1:24" s="41" customFormat="1" ht="28.8">
+      <c r="C14" s="56" t="s">
         <v>292</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D14" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E14" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="F13" s="41" t="str">
+      <c r="F14" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 7</v>
+      </c>
+      <c r="G14" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>Lưới điện hạ thế TBA Cây Da 7</v>
+      </c>
+      <c r="H14" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Cây Da 7</v>
+      </c>
+      <c r="I14" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>FCO + MCCB TBA  Cây Da 7</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>Cắt FCO + MCCB TBA  Cây Da 7</v>
+      </c>
+      <c r="L14" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa hạ thế tại trụ TBA  Cây Da 7</v>
+      </c>
+      <c r="O14" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 7</v>
-      </c>
-      <c r="G13" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v>Lưới điện hạ thế TBA Cây Da 7</v>
-      </c>
-      <c r="H13" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Cây Da 7</v>
-      </c>
-      <c r="I13" s="53" t="str">
-        <f t="shared" si="4"/>
-        <v>FCO + MCCB TBA  Cây Da 7</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K13" s="41" t="str">
-        <f t="shared" si="5"/>
-        <v>Cắt FCO + MCCB TBA  Cây Da 7</v>
-      </c>
-      <c r="L13" s="41" t="str">
-        <f t="shared" si="6"/>
-        <v>Tiếp địa hạ thế tại trụ TBA  Cây Da 7</v>
-      </c>
-      <c r="O13" s="51" t="str">
-        <f t="shared" si="0"/>
         <v>Cắt FCO + MCCB TBA  Cây Da 7
 Tiếp địa hạ thế tại trụ TBA  Cây Da 7</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="41" customFormat="1" ht="30">
-      <c r="C14" s="56" t="s">
+    <row r="15" spans="1:24" s="41" customFormat="1" ht="28.8">
+      <c r="C15" s="56" t="s">
         <v>292</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D15" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E15" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="F14" s="41" t="str">
+      <c r="F15" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 10</v>
+      </c>
+      <c r="G15" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>Lưới điện hạ thế TBA Cây Da 10</v>
+      </c>
+      <c r="H15" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Cây Da 10</v>
+      </c>
+      <c r="I15" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>FCO + MCCB TBA  Cây Da 10</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>Cắt FCO + MCCB TBA  Cây Da 10</v>
+      </c>
+      <c r="L15" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa hạ thế tại trụ TBA  Cây Da 10</v>
+      </c>
+      <c r="O15" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 10</v>
-      </c>
-      <c r="G14" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v>Lưới điện hạ thế TBA Cây Da 10</v>
-      </c>
-      <c r="H14" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Cây Da 10</v>
-      </c>
-      <c r="I14" s="53" t="str">
-        <f t="shared" si="4"/>
-        <v>FCO + MCCB TBA  Cây Da 10</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K14" s="41" t="str">
-        <f t="shared" si="5"/>
-        <v>Cắt FCO + MCCB TBA  Cây Da 10</v>
-      </c>
-      <c r="L14" s="41" t="str">
-        <f t="shared" si="6"/>
-        <v>Tiếp địa hạ thế tại trụ TBA  Cây Da 10</v>
-      </c>
-      <c r="O14" s="51" t="str">
-        <f t="shared" si="0"/>
         <v>Cắt FCO + MCCB TBA  Cây Da 10
 Tiếp địa hạ thế tại trụ TBA  Cây Da 10</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="41" customFormat="1" ht="30">
-      <c r="C15" s="56" t="s">
+    <row r="16" spans="1:24" s="41" customFormat="1" ht="28.8">
+      <c r="C16" s="56" t="s">
         <v>292</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D16" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E16" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="F15" s="41" t="str">
+      <c r="F16" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 11</v>
+      </c>
+      <c r="G16" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>Lưới điện hạ thế TBA Cây Da 11</v>
+      </c>
+      <c r="H16" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Cây Da 11</v>
+      </c>
+      <c r="I16" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>FCO + MCCB TBA  Cây Da 11</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>Cắt FCO + MCCB TBA  Cây Da 11</v>
+      </c>
+      <c r="L16" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>Tiếp địa hạ thế tại trụ TBA  Cây Da 11</v>
+      </c>
+      <c r="O16" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>Sửa chữa lớn đường dây hạ thế Lưới điện hạ thế TBA Cây Da 11</v>
-      </c>
-      <c r="G15" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v>Lưới điện hạ thế TBA Cây Da 11</v>
-      </c>
-      <c r="H15" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Cây Da 11</v>
-      </c>
-      <c r="I15" s="53" t="str">
-        <f t="shared" si="4"/>
-        <v>FCO + MCCB TBA  Cây Da 11</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K15" s="41" t="str">
-        <f t="shared" si="5"/>
-        <v>Cắt FCO + MCCB TBA  Cây Da 11</v>
-      </c>
-      <c r="L15" s="41" t="str">
-        <f t="shared" si="6"/>
-        <v>Tiếp địa hạ thế tại trụ TBA  Cây Da 11</v>
-      </c>
-      <c r="O15" s="51" t="str">
-        <f t="shared" si="0"/>
         <v>Cắt FCO + MCCB TBA  Cây Da 11
 Tiếp địa hạ thế tại trụ TBA  Cây Da 11</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="41" customFormat="1" ht="75">
-      <c r="C16" s="56" t="s">
+    <row r="17" spans="1:24" s="41" customFormat="1" ht="57.6">
+      <c r="C17" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D17" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E17" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F17" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G17" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="I16" s="59" t="s">
+      <c r="I17" s="59" t="s">
         <v>270</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="24" t="s">
+      <c r="J17" s="6"/>
+      <c r="K17" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="L16" s="54" t="s">
+      <c r="L17" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="N16" s="57">
+      <c r="N17" s="57">
         <v>44147</v>
       </c>
-      <c r="O16" s="51" t="str">
-        <f>K16&amp;CHAR(10)&amp;L16</f>
+      <c r="O17" s="51" t="str">
+        <f>K17&amp;CHAR(10)&amp;L17</f>
         <v>Cắt LBS khí Ấp 8 Nhân Nghĩa + 3 LTD
 Cắt LBS khí Nhân Nghĩa - Xuân Bảo + 3LTD
 Tiếp địa trụ trung thế 174
 Tiếp địa hạ thế tại TBA Nhân Nghĩa 11</v>
       </c>
-      <c r="P16" s="26" t="str">
-        <f>E16</f>
-        <v>Nhánh rẽ Nhân Nghĩa 11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" s="41" customFormat="1" ht="60">
-      <c r="C17" s="56" t="s">
-        <v>276</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>307</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>268</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="I17" s="59" t="s">
-        <v>280</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="L17" s="54" t="s">
-        <v>281</v>
-      </c>
-      <c r="N17" s="57">
-        <v>44147</v>
-      </c>
-      <c r="O17" s="51" t="str">
-        <f>K17&amp;CHAR(10)&amp;L17</f>
-        <v>Cắt FCO nhánh rẽ Nhân Nghĩa 11 tại trụ 172/001
-Tiếp địa trung hạ thế tại TBA Nhân Nghĩa 11</v>
-      </c>
       <c r="P17" s="26" t="str">
         <f>E17</f>
         <v>Nhánh rẽ Nhân Nghĩa 11</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="30">
-      <c r="A18">
-        <f>ROW()</f>
-        <v>18</v>
-      </c>
-      <c r="C18" s="44">
-        <v>44061</v>
-      </c>
-      <c r="D18" s="44"/>
-      <c r="E18" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>213</v>
+    <row r="18" spans="1:24" s="41" customFormat="1" ht="57.6">
+      <c r="C18" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>307</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>278</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="I18" s="59" t="s">
-        <v>149</v>
+        <v>280</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="26">
-        <f t="shared" ref="N18:N37" si="7">M18+14</f>
-        <v>14</v>
-      </c>
-      <c r="O18" s="26" t="e">
-        <f t="array" aca="1" ref="O18" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,K18:L18)</f>
-        <v>#NAME?</v>
+      <c r="K18" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="L18" s="54" t="s">
+        <v>281</v>
+      </c>
+      <c r="N18" s="57">
+        <v>44147</v>
+      </c>
+      <c r="O18" s="51" t="str">
+        <f>K18&amp;CHAR(10)&amp;L18</f>
+        <v>Cắt FCO nhánh rẽ Nhân Nghĩa 11 tại trụ 172/001
+Tiếp địa trung hạ thế tại TBA Nhân Nghĩa 11</v>
       </c>
       <c r="P18" s="26" t="str">
-        <f t="shared" ref="P18:P38" si="8">E18</f>
-        <v>TBA Nam Hà 1A</v>
-      </c>
-      <c r="Q18" s="26" t="e">
-        <f t="shared" ref="Q18:Q38" ca="1" si="9">O18&amp;E18</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R18" s="35">
-        <v>44079</v>
-      </c>
-      <c r="S18" t="s">
-        <v>136</v>
-      </c>
-      <c r="T18">
-        <f t="shared" ref="T18:T24" si="10">WEEKDAY(R18)</f>
-        <v>7</v>
-      </c>
-      <c r="U18" s="26" t="e">
-        <f t="shared" ref="U18:U38" ca="1" si="11">O18&amp;E18</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V18" s="26" t="e">
-        <f t="shared" ref="V18:V38" ca="1" si="12">F18&amp;LOWER(O18)&amp;E18</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W18" s="26" t="str">
-        <f t="shared" ref="W18:W38" si="13">"Cắt "&amp;I18&amp;P18</f>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1A</v>
-      </c>
-      <c r="X18" s="26" t="str">
-        <f t="shared" ref="X18:X38" si="14">"Tiếp địa tại "&amp;L18&amp;E18</f>
-        <v>Tiếp địa tại TBA Nam Hà 1A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="30">
+        <f>E18</f>
+        <v>Nhánh rẽ Nhân Nghĩa 11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="28.8">
       <c r="A19">
         <f>ROW()</f>
         <v>19</v>
@@ -6488,13 +6516,13 @@
       </c>
       <c r="D19" s="44"/>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>231</v>
@@ -6504,27 +6532,27 @@
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>251</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="26">
-        <f>M19+14</f>
+        <f t="shared" ref="N19:N38" si="8">M19+14</f>
         <v>14</v>
       </c>
-      <c r="O19" s="26" t="e">
-        <f t="array" aca="1" ref="O19" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,K19:L19)</f>
-        <v>#NAME?</v>
+      <c r="O19" s="26" t="str">
+        <f t="array" ref="O19">_xlfn.TEXTJOIN(CHAR(10),TRUE,K19:L19)</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1A
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1A</v>
       </c>
       <c r="P19" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>TBA Nam Hà 1</v>
-      </c>
-      <c r="Q19" s="26" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <f t="shared" ref="P19:P39" si="9">E19</f>
+        <v>TBA Nam Hà 1A</v>
+      </c>
+      <c r="Q19" s="26" t="str">
+        <f t="shared" ref="Q19:Q39" si="10">O19&amp;E19</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1A
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1ATBA Nam Hà 1A</v>
       </c>
       <c r="R19" s="35">
         <v>44079</v>
@@ -6533,27 +6561,29 @@
         <v>136</v>
       </c>
       <c r="T19">
-        <f>WEEKDAY(R19)</f>
+        <f t="shared" ref="T19:T25" si="11">WEEKDAY(R19)</f>
         <v>7</v>
       </c>
-      <c r="U19" s="26" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="V19" s="26" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+      <c r="U19" s="26" t="str">
+        <f t="shared" ref="U19:U39" si="12">O19&amp;E19</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1A
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1ATBA Nam Hà 1A</v>
+      </c>
+      <c r="V19" s="26" t="str">
+        <f t="shared" ref="V19:V39" si="13">F19&amp;LOWER(O19)&amp;E19</f>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 1Acắt fco + mccb tba nam hà 1a
+tiếp địa hạ thế tại mccb tba nam hà 1aTBA Nam Hà 1A</v>
       </c>
       <c r="W19" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Cắt FCO + MCCB TBA Nam Hà 1</v>
+        <f t="shared" ref="W19:W39" si="14">"Cắt "&amp;I19&amp;P19</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1A</v>
       </c>
       <c r="X19" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Tiếp địa tại  TBA Nam Hà 1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="30">
+        <f t="shared" ref="X19:X39" si="15">"Tiếp địa tại "&amp;L19&amp;E19</f>
+        <v>Tiếp địa tại TBA Nam Hà 1A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="28.8">
       <c r="A20">
         <f>ROW()</f>
         <v>20</v>
@@ -6563,13 +6593,13 @@
       </c>
       <c r="D20" s="44"/>
       <c r="E20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>231</v>
@@ -6579,25 +6609,31 @@
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="L20" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>251</v>
+      </c>
       <c r="M20" s="6"/>
       <c r="N20" s="26">
-        <f t="shared" si="7"/>
+        <f>M20+14</f>
         <v>14</v>
       </c>
-      <c r="O20" s="26" t="e">
-        <f t="array" aca="1" ref="O20" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,K20:L20)</f>
-        <v>#NAME?</v>
+      <c r="O20" s="26" t="str">
+        <f t="array" ref="O20">_xlfn.TEXTJOIN(CHAR(10),TRUE,K20:L20)</f>
+        <v xml:space="preserve">Cắt FCO + MCCB TBA Nam Hà 1
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1
+ </v>
       </c>
       <c r="P20" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>TBA Nam Hà 3</v>
-      </c>
-      <c r="Q20" s="26" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <f t="shared" si="9"/>
+        <v>TBA Nam Hà 1</v>
+      </c>
+      <c r="Q20" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1
+ TBA Nam Hà 1</v>
       </c>
       <c r="R20" s="35">
         <v>44079</v>
@@ -6606,27 +6642,31 @@
         <v>136</v>
       </c>
       <c r="T20">
-        <f t="shared" si="10"/>
+        <f>WEEKDAY(R20)</f>
         <v>7</v>
       </c>
-      <c r="U20" s="26" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="V20" s="26" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+      <c r="U20" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1
+ TBA Nam Hà 1</v>
+      </c>
+      <c r="V20" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 1cắt fco + mccb tba nam hà 1
+tiếp địa hạ thế tại mccb tba nam hà 1
+ TBA Nam Hà 1</v>
       </c>
       <c r="W20" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Cắt FCO + MCCB TBA Nam Hà 3</v>
+        <f t="shared" si="14"/>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1</v>
       </c>
       <c r="X20" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Tiếp địa tại TBA Nam Hà 3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="30">
+        <f t="shared" si="15"/>
+        <v>Tiếp địa tại  TBA Nam Hà 1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="28.8">
       <c r="A21">
         <f>ROW()</f>
         <v>21</v>
@@ -6636,13 +6676,13 @@
       </c>
       <c r="D21" s="44"/>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>231</v>
@@ -6652,54 +6692,58 @@
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="24" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="O21" s="26" t="e">
-        <f t="array" aca="1" ref="O21" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,K21:L21)</f>
-        <v>#NAME?</v>
+      <c r="O21" s="26" t="str">
+        <f t="array" ref="O21">_xlfn.TEXTJOIN(CHAR(10),TRUE,K21:L21)</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 3
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 3</v>
       </c>
       <c r="P21" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>TBA Xuân Tây 10A</v>
-      </c>
-      <c r="Q21" s="26" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <f t="shared" si="9"/>
+        <v>TBA Nam Hà 3</v>
+      </c>
+      <c r="Q21" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Cắt FCO + MCCB TBA Nam Hà 3
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 3TBA Nam Hà 3</v>
       </c>
       <c r="R21" s="35">
-        <v>44081</v>
+        <v>44079</v>
       </c>
       <c r="S21" t="s">
         <v>136</v>
       </c>
       <c r="T21">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="U21" s="26" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="V21" s="26" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="U21" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Cắt FCO + MCCB TBA Nam Hà 3
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 3TBA Nam Hà 3</v>
+      </c>
+      <c r="V21" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 3cắt fco + mccb tba nam hà 3
+tiếp địa hạ thế tại mccb tba nam hà 3TBA Nam Hà 3</v>
       </c>
       <c r="W21" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Cắt FCO + MCCB TBA Xuân Tây 10A</v>
+        <f t="shared" si="14"/>
+        <v>Cắt FCO + MCCB TBA Nam Hà 3</v>
       </c>
       <c r="X21" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Tiếp địa tại TBA Xuân Tây 10A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+        <f t="shared" si="15"/>
+        <v>Tiếp địa tại TBA Nam Hà 3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="28.8">
       <c r="A22">
         <f>ROW()</f>
         <v>22</v>
@@ -6708,14 +6752,14 @@
         <v>44061</v>
       </c>
       <c r="D22" s="44"/>
-      <c r="E22" s="6" t="s">
-        <v>150</v>
+      <c r="E22" t="s">
+        <v>139</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>231</v>
@@ -6725,56 +6769,58 @@
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>240</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="O22" s="26" t="e">
-        <f t="array" aca="1" ref="O22" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,K22:L22)</f>
-        <v>#NAME?</v>
+      <c r="O22" s="26" t="str">
+        <f t="array" ref="O22">_xlfn.TEXTJOIN(CHAR(10),TRUE,K22:L22)</f>
+        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
+Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10A</v>
       </c>
       <c r="P22" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>TBA Sông Ray 8A</v>
-      </c>
-      <c r="Q22" s="26" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <f t="shared" si="9"/>
+        <v>TBA Xuân Tây 10A</v>
+      </c>
+      <c r="Q22" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
+Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10ATBA Xuân Tây 10A</v>
       </c>
       <c r="R22" s="35">
-        <v>44083</v>
+        <v>44081</v>
       </c>
       <c r="S22" t="s">
         <v>136</v>
       </c>
       <c r="T22">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="U22" s="26" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="V22" s="26" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="U22" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
+Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10ATBA Xuân Tây 10A</v>
+      </c>
+      <c r="V22" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Thay dây hạ thế  sau TBA Xuân Tây 10Acắt fco + mccb tba xuân tây 10a
+tiếp địa hạ thế tại mccb tba xuân tây 10aTBA Xuân Tây 10A</v>
       </c>
       <c r="W22" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Cắt FCO + MCCB TBA Sông Ray 8A</v>
+        <f t="shared" si="14"/>
+        <v>Cắt FCO + MCCB TBA Xuân Tây 10A</v>
       </c>
       <c r="X22" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Tiếp địa tại Tiếp địa hạ thế tại MCCB TBA Sông Ray 8ATBA Sông Ray 8A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="45">
+        <f t="shared" si="15"/>
+        <v>Tiếp địa tại TBA Xuân Tây 10A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23">
         <f>ROW()</f>
         <v>23</v>
@@ -6784,194 +6830,218 @@
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>231</v>
       </c>
       <c r="I23" s="59" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="L23" s="24" t="s">
-        <v>183</v>
+        <v>239</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="26">
-        <f t="shared" ref="N23" si="15">M23+14</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="O23" s="26" t="e">
-        <f t="array" aca="1" ref="O23" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,K23:L23)</f>
-        <v>#NAME?</v>
+      <c r="O23" s="26" t="str">
+        <f t="array" ref="O23">_xlfn.TEXTJOIN(CHAR(10),TRUE,K23:L23)</f>
+        <v>Cắt FCO + MCCB TBA Sông Ray 8A
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 8A</v>
       </c>
       <c r="P23" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>Nhánh rẽ Đồng Tâm 1</v>
-      </c>
-      <c r="Q23" s="26" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <f t="shared" si="9"/>
+        <v>TBA Sông Ray 8A</v>
+      </c>
+      <c r="Q23" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Cắt FCO + MCCB TBA Sông Ray 8A
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 8ATBA Sông Ray 8A</v>
       </c>
       <c r="R23" s="35">
-        <v>44086</v>
+        <v>44083</v>
       </c>
       <c r="S23" t="s">
         <v>136</v>
       </c>
       <c r="T23">
-        <f t="shared" ref="T23" si="16">WEEKDAY(R23)</f>
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="U23" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Cắt FCO + MCCB TBA Sông Ray 8A
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 8ATBA Sông Ray 8A</v>
+      </c>
+      <c r="V23" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Thay dây hạ thế  sau TBA Sông Ray 8Acắt fco + mccb tba sông ray 8a
+tiếp địa hạ thế tại mccb tba sông ray 8aTBA Sông Ray 8A</v>
+      </c>
+      <c r="W23" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v>Cắt FCO + MCCB TBA Sông Ray 8A</v>
+      </c>
+      <c r="X23" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>Tiếp địa tại Tiếp địa hạ thế tại MCCB TBA Sông Ray 8ATBA Sông Ray 8A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="43.2">
+      <c r="A24">
+        <f>ROW()</f>
+        <v>24</v>
+      </c>
+      <c r="C24" s="44">
+        <v>44061</v>
+      </c>
+      <c r="D24" s="44"/>
+      <c r="E24" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="I24" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M24" s="6"/>
+      <c r="N24" s="26">
+        <f t="shared" ref="N24" si="16">M24+14</f>
+        <v>14</v>
+      </c>
+      <c r="O24" s="26" t="str">
+        <f t="array" ref="O24">_xlfn.TEXTJOIN(CHAR(10),TRUE,K24:L24)</f>
+        <v>Cắt LBS khí Đồng Tâm 1 + 3 LTD Đồng Tâm 1
+Cắt LBS khí Sông Ray + 3 LTD Sông Ray 1
+Tiếp địa trụ trung thế 357 
+Tiếp địa trụ trung thế 381 
+Tiếp địa hạ thế TBA Sông Ray 7</v>
+      </c>
+      <c r="P24" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v>Nhánh rẽ Đồng Tâm 1</v>
+      </c>
+      <c r="Q24" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Cắt LBS khí Đồng Tâm 1 + 3 LTD Đồng Tâm 1
+Cắt LBS khí Sông Ray + 3 LTD Sông Ray 1
+Tiếp địa trụ trung thế 357 
+Tiếp địa trụ trung thế 381 
+Tiếp địa hạ thế TBA Sông Ray 7Nhánh rẽ Đồng Tâm 1</v>
+      </c>
+      <c r="R24" s="35">
+        <v>44086</v>
+      </c>
+      <c r="S24" t="s">
+        <v>136</v>
+      </c>
+      <c r="T24">
+        <f t="shared" ref="T24" si="17">WEEKDAY(R24)</f>
         <v>7</v>
       </c>
-      <c r="U23" s="26" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="V23" s="26" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="W23" s="26" t="str">
+      <c r="U24" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Cắt LBS khí Đồng Tâm 1 + 3 LTD Đồng Tâm 1
+Cắt LBS khí Sông Ray + 3 LTD Sông Ray 1
+Tiếp địa trụ trung thế 357 
+Tiếp địa trụ trung thế 381 
+Tiếp địa hạ thế TBA Sông Ray 7Nhánh rẽ Đồng Tâm 1</v>
+      </c>
+      <c r="V24" s="26" t="str">
         <f t="shared" si="13"/>
+        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7Acắt lbs khí đồng tâm 1 + 3 ltd đồng tâm 1
+cắt lbs khí sông ray + 3 ltd sông ray 1
+tiếp địa trụ trung thế 357 
+tiếp địa trụ trung thế 381 
+tiếp địa hạ thế tba sông ray 7Nhánh rẽ Đồng Tâm 1</v>
+      </c>
+      <c r="W24" s="26" t="str">
+        <f t="shared" si="14"/>
         <v>Cắt LBS khí + 3 LTDNhánh rẽ Đồng Tâm 1</v>
       </c>
-      <c r="X23" s="26" t="str">
-        <f t="shared" si="14"/>
+      <c r="X24" s="26" t="str">
+        <f t="shared" si="15"/>
         <v>Tiếp địa tại Tiếp địa trụ trung thế 381 
 Tiếp địa hạ thế TBA Sông Ray 7Nhánh rẽ Đồng Tâm 1</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="30">
-      <c r="A24">
-        <f>ROW()</f>
-        <v>24</v>
-      </c>
-      <c r="C24" s="44">
+    <row r="25" spans="1:24" ht="28.8">
+      <c r="A25">
+        <f>ROW()</f>
+        <v>25</v>
+      </c>
+      <c r="C25" s="44">
         <v>44171</v>
-      </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="G24" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="I24" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="L24" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="M24" s="6"/>
-      <c r="N24" s="26">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="O24" s="26" t="e">
-        <f t="array" aca="1" ref="O24" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,K24:L24)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P24" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>Nhánh rẽ Sông Ray 7A</v>
-      </c>
-      <c r="Q24" s="26" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R24" s="35">
-        <v>44086</v>
-      </c>
-      <c r="S24" t="s">
-        <v>136</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="U24" s="26" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="V24" s="26" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="W24" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Cắt 3xFCO Nhánh rẽ Sông Ray 7A</v>
-      </c>
-      <c r="X24" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Tiếp địa tại Tiếp địa trung hạ thế  trạm biến áp Sông Ray 7ANhánh rẽ Sông Ray 7A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="45">
-      <c r="A25">
-        <f>ROW()</f>
-        <v>25</v>
-      </c>
-      <c r="C25" s="44">
-        <v>44062</v>
       </c>
       <c r="D25" s="44"/>
       <c r="E25" s="6" t="s">
-        <v>154</v>
+        <v>261</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="G25" s="47" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="I25" s="59" t="s">
         <v>155</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>185</v>
+        <v>266</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>263</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="O25" s="26" t="e">
-        <f t="array" aca="1" ref="O25" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,K25:L25)</f>
-        <v>#NAME?</v>
+      <c r="O25" s="26" t="str">
+        <f t="array" ref="O25">_xlfn.TEXTJOIN(CHAR(10),TRUE,K25:L25)</f>
+        <v>Cắt FCO + MCCB TBA Sông Ray 7A
+Cắt 3xFCO nhánh rẽ Sông Ray 7A
+Tiếp địa trung hạ thế  trạm biến áp Sông Ray 7A</v>
       </c>
       <c r="P25" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>Nhánh rẽ Lâm San 10, 11, 12</v>
-      </c>
-      <c r="Q25" s="26" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <f t="shared" si="9"/>
+        <v>Nhánh rẽ Sông Ray 7A</v>
+      </c>
+      <c r="Q25" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Cắt FCO + MCCB TBA Sông Ray 7A
+Cắt 3xFCO nhánh rẽ Sông Ray 7A
+Tiếp địa trung hạ thế  trạm biến áp Sông Ray 7ANhánh rẽ Sông Ray 7A</v>
       </c>
       <c r="R25" s="35">
         <v>44086</v>
@@ -6980,27 +7050,31 @@
         <v>136</v>
       </c>
       <c r="T25">
-        <f t="shared" ref="T25" si="17">WEEKDAY(R25)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="U25" s="26" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="V25" s="26" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+      <c r="U25" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Cắt FCO + MCCB TBA Sông Ray 7A
+Cắt 3xFCO nhánh rẽ Sông Ray 7A
+Tiếp địa trung hạ thế  trạm biến áp Sông Ray 7ANhánh rẽ Sông Ray 7A</v>
+      </c>
+      <c r="V25" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Tách lưới, sang tải TBA  Sông Ray 7 sang TBA  Sông Ray 7A, đấu nối máy biến ápcắt fco + mccb tba sông ray 7a
+cắt 3xfco nhánh rẽ sông ray 7a
+tiếp địa trung hạ thế  trạm biến áp sông ray 7aNhánh rẽ Sông Ray 7A</v>
       </c>
       <c r="W25" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12</v>
+        <f t="shared" si="14"/>
+        <v>Cắt 3xFCO Nhánh rẽ Sông Ray 7A</v>
       </c>
       <c r="X25" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="45">
+        <f t="shared" si="15"/>
+        <v>Tiếp địa tại Tiếp địa trung hạ thế  trạm biến áp Sông Ray 7ANhánh rẽ Sông Ray 7A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="43.2">
       <c r="A26">
         <f>ROW()</f>
         <v>26</v>
@@ -7010,72 +7084,80 @@
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>231</v>
       </c>
       <c r="I26" s="59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="O26" s="26" t="e">
-        <f t="array" aca="1" ref="O26" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,K26:L26)</f>
-        <v>#NAME?</v>
+      <c r="O26" s="26" t="str">
+        <f t="array" ref="O26">_xlfn.TEXTJOIN(CHAR(10),TRUE,K26:L26)</f>
+        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11D</v>
       </c>
       <c r="P26" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>Nhánh rẽ Lâm San</v>
-      </c>
-      <c r="Q26" s="26" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <f t="shared" si="9"/>
+        <v>Nhánh rẽ Lâm San 10, 11, 12</v>
+      </c>
+      <c r="Q26" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
       </c>
       <c r="R26" s="35">
-        <v>44093</v>
+        <v>44086</v>
       </c>
       <c r="S26" t="s">
         <v>136</v>
       </c>
       <c r="T26">
-        <f t="shared" ref="T26:T36" si="18">WEEKDAY(R26)</f>
+        <f t="shared" ref="T26" si="18">WEEKDAY(R26)</f>
         <v>7</v>
       </c>
-      <c r="U26" s="26" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="V26" s="26" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+      <c r="U26" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trụ trung thế 357 Nhánh rẽ Lâm San 10, 11, 12
+Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
+      </c>
+      <c r="V26" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A, đấu nối trung hạ thếcắt 3xfco nhánh rẽ lâm san 10, 11, 12
+tiếp địa trụ trung thế 357 nhánh rẽ lâm san 10, 11, 12
+tiếp địa trung hạ áp tại tba lâm san 11a, 11dNhánh rẽ Lâm San 10, 11, 12</v>
       </c>
       <c r="W26" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Lâm San</v>
+        <f t="shared" si="14"/>
+        <v>Cắt 3xFCO Nhánh rẽ Lâm San 10, 11, 12</v>
       </c>
       <c r="X26" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="30">
+        <f t="shared" si="15"/>
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Lâm San 11A, 11DNhánh rẽ Lâm San 10, 11, 12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="43.2">
       <c r="A27">
         <f>ROW()</f>
         <v>27</v>
@@ -7085,72 +7167,80 @@
       </c>
       <c r="D27" s="44"/>
       <c r="E27" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G27" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>231</v>
       </c>
       <c r="I27" s="59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="O27" s="26" t="e">
-        <f t="array" aca="1" ref="O27" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,K27:L27)</f>
-        <v>#NAME?</v>
+      <c r="O27" s="26" t="str">
+        <f t="array" ref="O27">_xlfn.TEXTJOIN(CHAR(10),TRUE,K27:L27)</f>
+        <v xml:space="preserve">Cắt Recloser + 3 LTD Lâm San
+Tiếp địa trụ trung thế 011A
+Tiếp địa trụ trung thế 075 </v>
       </c>
       <c r="P27" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>Nhánh rẽ Cánh đồng Xuân Tây 1</v>
-      </c>
-      <c r="Q27" s="26" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <f t="shared" si="9"/>
+        <v>Nhánh rẽ Lâm San</v>
+      </c>
+      <c r="Q27" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Cắt Recloser + 3 LTD Lâm San
+Tiếp địa trụ trung thế 011A
+Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
       </c>
       <c r="R27" s="35">
-        <v>44090</v>
+        <v>44093</v>
       </c>
       <c r="S27" t="s">
         <v>136</v>
       </c>
       <c r="T27">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="U27" s="26" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="V27" s="26" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <f t="shared" ref="T27:T37" si="19">WEEKDAY(R27)</f>
+        <v>7</v>
+      </c>
+      <c r="U27" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Cắt Recloser + 3 LTD Lâm San
+Tiếp địa trụ trung thế 011A
+Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
+      </c>
+      <c r="V27" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Trồng trụ trung thế 015A đấu nối trung thế, tách lưới, sang tải TBA Sông Ray 2, Sông Ray 2A. Đấu nối trung thế và di dời TBA Sông Ray 4Acắt recloser + 3 ltd lâm san
+tiếp địa trụ trung thế 011a
+tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
       </c>
       <c r="W27" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+        <f t="shared" si="14"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Lâm San</v>
       </c>
       <c r="X27" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="30">
+        <f t="shared" si="15"/>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 075 Nhánh rẽ Lâm San</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="28.8">
       <c r="A28">
         <f>ROW()</f>
         <v>28</v>
@@ -7160,148 +7250,164 @@
       </c>
       <c r="D28" s="44"/>
       <c r="E28" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G28" s="47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>231</v>
       </c>
       <c r="I28" s="59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>192</v>
+        <v>189</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="O28" s="26" t="e">
-        <f t="array" aca="1" ref="O28" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,K28:L28)</f>
-        <v>#NAME?</v>
+      <c r="O28" s="26" t="str">
+        <f t="array" ref="O28">_xlfn.TEXTJOIN(CHAR(10),TRUE,K28:L28)</f>
+        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
+Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1</v>
       </c>
       <c r="P28" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>Nhánh rẽ Láng Me</v>
-      </c>
-      <c r="Q28" s="26" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <f t="shared" si="9"/>
+        <v>Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+      </c>
+      <c r="Q28" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
+Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
       </c>
       <c r="R28" s="35">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="S28" t="s">
         <v>136</v>
       </c>
       <c r="T28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="U28" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1
+Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+      </c>
+      <c r="V28" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Đấu nối trung thế trụ 009A, 013. Tách lưới hạ thế sau TBA Cánh đồng Xuân Tây 1A, Cánh đồng Xuân Tây 1Bcắt 3xfco nhánh rẽ cánh đồng xuân tây 1
+tiếp địa trung hạ áp tại tba cánh đồng xuân tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+      </c>
+      <c r="W28" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v>Cắt 3xFCO Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+      </c>
+      <c r="X28" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Cánh đồng Xuân Tây 1Nhánh rẽ Cánh đồng Xuân Tây 1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="28.8">
+      <c r="A29">
+        <f>ROW()</f>
+        <v>29</v>
+      </c>
+      <c r="C29" s="44">
+        <v>44062</v>
+      </c>
+      <c r="D29" s="44"/>
+      <c r="E29" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="I29" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="26">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="O29" s="26" t="str">
+        <f t="array" ref="O29">_xlfn.TEXTJOIN(CHAR(10),TRUE,K29:L29)</f>
+        <v>Cắt Recloser + 3 LTD Láng Me
+Tiếp địa trụ trung thế 079
+Tiếp địa trụ trung thế 094
+ Tiếp địa hạ thế TBA Láng Me 3</v>
+      </c>
+      <c r="P29" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v>Nhánh rẽ Láng Me</v>
+      </c>
+      <c r="Q29" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Cắt Recloser + 3 LTD Láng Me
+Tiếp địa trụ trung thế 079
+Tiếp địa trụ trung thế 094
+ Tiếp địa hạ thế TBA Láng Me 3Nhánh rẽ Láng Me</v>
+      </c>
+      <c r="R29" s="35">
+        <v>44089</v>
+      </c>
+      <c r="S29" t="s">
+        <v>136</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="U28" s="26" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="V28" s="26" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="W28" s="26" t="str">
+      <c r="U29" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Cắt Recloser + 3 LTD Láng Me
+Tiếp địa trụ trung thế 079
+Tiếp địa trụ trung thế 094
+ Tiếp địa hạ thế TBA Láng Me 3Nhánh rẽ Láng Me</v>
+      </c>
+      <c r="V29" s="26" t="str">
         <f t="shared" si="13"/>
+        <v>Đấu nối trung thế trụ 087 nhánh rẽ Láng Me. Cấy TBA Láng Me 3B, Tách lưới hạ thế sau TBA Láng Me 3 sang Láng Me 3Bcắt recloser + 3 ltd láng me
+tiếp địa trụ trung thế 079
+tiếp địa trụ trung thế 094
+ tiếp địa hạ thế tba láng me 3Nhánh rẽ Láng Me</v>
+      </c>
+      <c r="W29" s="26" t="str">
+        <f t="shared" si="14"/>
         <v>Cắt Recloser + 3 LTD Nhánh rẽ Láng Me</v>
       </c>
-      <c r="X28" s="26" t="str">
-        <f t="shared" si="14"/>
+      <c r="X29" s="26" t="str">
+        <f t="shared" si="15"/>
         <v>Tiếp địa tại Tiếp địa trụ trung thế 094
  Tiếp địa hạ thế TBA Láng Me 3Nhánh rẽ Láng Me</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="30">
-      <c r="A29">
-        <f>ROW()</f>
-        <v>29</v>
-      </c>
-      <c r="C29" s="44">
-        <v>44062</v>
-      </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="G29" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="I29" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="M29" s="6"/>
-      <c r="N29" s="26">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="O29" s="26" t="e">
-        <f t="array" aca="1" ref="O29" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,K29:L29)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P29" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>Nhánh rẽ Thoại Hương 3, 4</v>
-      </c>
-      <c r="Q29" s="26" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R29" s="35">
-        <v>44088</v>
-      </c>
-      <c r="S29" t="s">
-        <v>136</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="U29" s="26" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="V29" s="26" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="W29" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4</v>
-      </c>
-      <c r="X29" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="45">
+    <row r="30" spans="1:24" ht="28.8">
       <c r="A30">
         <f>ROW()</f>
         <v>30</v>
@@ -7311,13 +7417,13 @@
       </c>
       <c r="D30" s="44"/>
       <c r="E30" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G30" s="47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>231</v>
@@ -7326,57 +7432,61 @@
         <v>164</v>
       </c>
       <c r="J30" s="6"/>
-      <c r="K30" s="45" t="s">
-        <v>194</v>
+      <c r="K30" s="24" t="s">
+        <v>193</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="O30" s="26" t="e">
-        <f t="array" aca="1" ref="O30" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,K30:L30)</f>
-        <v>#NAME?</v>
+      <c r="O30" s="26" t="str">
+        <f t="array" ref="O30">_xlfn.TEXTJOIN(CHAR(10),TRUE,K30:L30)</f>
+        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
+Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4</v>
       </c>
       <c r="P30" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>Nhánh rẽ Xuân Tây 19</v>
-      </c>
-      <c r="Q30" s="26" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <f t="shared" si="9"/>
+        <v>Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+      <c r="Q30" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
+Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
       </c>
       <c r="R30" s="35">
-        <v>44086</v>
+        <v>44088</v>
       </c>
       <c r="S30" t="s">
         <v>136</v>
       </c>
       <c r="T30">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="U30" s="26" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="V30" s="26" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="U30" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4
+Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+      <c r="V30" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Đấu nối trung thế trụ 021 Nhánh rẽ Thoại Hương 3, 4. Di dời TBA Thoại Hương 4cắt fco nhánh rẽ thoại hương 3, 4
+tiếp địa trung hạ áp tại tba thoại hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
       </c>
       <c r="W30" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Cắt FCO Nhánh rẽ Xuân Tây 19</v>
+        <f t="shared" si="14"/>
+        <v>Cắt FCO Nhánh rẽ Thoại Hương 3, 4</v>
       </c>
       <c r="X30" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="75">
+        <f t="shared" si="15"/>
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Thoại Hương 3, 4Nhánh rẽ Thoại Hương 3, 4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="28.8">
       <c r="A31">
         <f>ROW()</f>
         <v>31</v>
@@ -7386,148 +7496,164 @@
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="I31" s="59" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="L31" s="24" t="s">
-        <v>198</v>
+        <v>194</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="O31" s="26" t="e">
-        <f t="array" aca="1" ref="O31" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,K31:L31)</f>
-        <v>#NAME?</v>
+      <c r="O31" s="26" t="str">
+        <f t="array" ref="O31">_xlfn.TEXTJOIN(CHAR(10),TRUE,K31:L31)</f>
+        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
+Tiếp địa trung hạ áp tại TBA Xuân Tây 19</v>
       </c>
       <c r="P31" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>Nhánh rẽ Láng Me 5</v>
-      </c>
-      <c r="Q31" s="26" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <f t="shared" si="9"/>
+        <v>Nhánh rẽ Xuân Tây 19</v>
+      </c>
+      <c r="Q31" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
+Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
       </c>
       <c r="R31" s="35">
-        <v>44089</v>
+        <v>44086</v>
       </c>
       <c r="S31" t="s">
         <v>136</v>
       </c>
       <c r="T31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="U31" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Cắt FCO Nhánh rẽ Xuân Tây 19
+Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
+      </c>
+      <c r="V31" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Đấu nối trung thế trụ 017 Nhánh rẽ Xuân Tây 19.Cấy TBA Xuân Tây 19A, tách lưới hạ thế TBA Xuân Tây 19 sang TBA Xuân Tây 19Acắt fco nhánh rẽ xuân tây 19
+tiếp địa trung hạ áp tại tba xuân tây 19Nhánh rẽ Xuân Tây 19</v>
+      </c>
+      <c r="W31" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v>Cắt FCO Nhánh rẽ Xuân Tây 19</v>
+      </c>
+      <c r="X31" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>Tiếp địa tại Tiếp địa trung hạ áp tại TBA Xuân Tây 19Nhánh rẽ Xuân Tây 19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="72">
+      <c r="A32">
+        <f>ROW()</f>
+        <v>32</v>
+      </c>
+      <c r="C32" s="44">
+        <v>44062</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I32" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="M32" s="6"/>
+      <c r="N32" s="26">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="O32" s="26" t="str">
+        <f t="array" ref="O32">_xlfn.TEXTJOIN(CHAR(10),TRUE,K32:L32)</f>
+        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5
+Tiếp địa trụ trung thế 107
+Tiếp địa trụ trung thế 131
+ Tiếp địa hạ thế TBA Láng Me 5, 5A, 5B</v>
+      </c>
+      <c r="P32" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v>Nhánh rẽ Láng Me 5</v>
+      </c>
+      <c r="Q32" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5
+Tiếp địa trụ trung thế 107
+Tiếp địa trụ trung thế 131
+ Tiếp địa hạ thế TBA Láng Me 5, 5A, 5BNhánh rẽ Láng Me 5</v>
+      </c>
+      <c r="R32" s="35">
+        <v>44089</v>
+      </c>
+      <c r="S32" t="s">
+        <v>136</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="U31" s="26" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="V31" s="26" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="W31" s="26" t="str">
+      <c r="U32" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5
+Tiếp địa trụ trung thế 107
+Tiếp địa trụ trung thế 131
+ Tiếp địa hạ thế TBA Láng Me 5, 5A, 5BNhánh rẽ Láng Me 5</v>
+      </c>
+      <c r="V32" s="26" t="str">
         <f t="shared" si="13"/>
+        <v>Nâng cấp đường dây trung thế và trạm biến áp Láng Me 5B từ 1 pha lên 3 pha, di dời TBA Láng Me 5, cấy trạm biến áp lá me 5A-1, Cấy mới TBA Láng Me 5C, tách một phần lưới hạ thế Láng Me 5B sang nhận điện TBA Láng Me 5C, Đấu nối nhánh rẽ nhánh rẽ Láng Me 5C tại trụ 135 cắt 3xfco nhánh rẽ láng me 5
+tiếp địa trụ trung thế 107
+tiếp địa trụ trung thế 131
+ tiếp địa hạ thế tba láng me 5, 5a, 5bNhánh rẽ Láng Me 5</v>
+      </c>
+      <c r="W32" s="26" t="str">
+        <f t="shared" si="14"/>
         <v>Cắt 3xFCO Nhánh rẽ Láng Me 5</v>
       </c>
-      <c r="X31" s="26" t="str">
-        <f t="shared" si="14"/>
+      <c r="X32" s="26" t="str">
+        <f t="shared" si="15"/>
         <v>Tiếp địa tại Tiếp địa trụ trung thế 131
  Tiếp địa hạ thế TBA Láng Me 5, 5A, 5BNhánh rẽ Láng Me 5</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="30">
-      <c r="A32">
-        <f>ROW()</f>
-        <v>32</v>
-      </c>
-      <c r="C32" s="44">
-        <v>44062</v>
-      </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="G32" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="I32" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="M32" s="6"/>
-      <c r="N32" s="26">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="O32" s="26" t="e">
-        <f t="array" aca="1" ref="O32" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,K32:L32)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P32" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>Nhánh rẽ Sông Nhạn</v>
-      </c>
-      <c r="Q32" s="26" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R32" s="35">
-        <v>44095</v>
-      </c>
-      <c r="S32" t="s">
-        <v>136</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="U32" s="26" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="V32" s="26" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="W32" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn</v>
-      </c>
-      <c r="X32" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="45">
+    <row r="33" spans="1:24" ht="28.8">
       <c r="A33">
         <f>ROW()</f>
         <v>33</v>
@@ -7537,13 +7663,13 @@
       </c>
       <c r="D33" s="44"/>
       <c r="E33" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G33" s="47" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>231</v>
@@ -7552,73 +7678,81 @@
         <v>156</v>
       </c>
       <c r="J33" s="6"/>
-      <c r="K33" s="24" t="s">
-        <v>201</v>
+      <c r="K33" s="45" t="s">
+        <v>199</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="O33" s="26" t="e">
-        <f t="array" aca="1" ref="O33" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,K33:L33)</f>
-        <v>#NAME?</v>
+      <c r="O33" s="26" t="str">
+        <f t="array" ref="O33">_xlfn.TEXTJOIN(CHAR(10),TRUE,K33:L33)</f>
+        <v xml:space="preserve">Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
+Tiếp địa trụ trung thế 006
+Tiếp địa trụ trung thế 023A </v>
       </c>
       <c r="P33" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="Q33" s="26" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <f t="shared" si="9"/>
+        <v>Nhánh rẽ Sông Nhạn</v>
+      </c>
+      <c r="Q33" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
+Tiếp địa trụ trung thế 006
+Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
       </c>
       <c r="R33" s="35">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="S33" t="s">
         <v>136</v>
       </c>
       <c r="T33">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="U33" s="26" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="V33" s="26" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="U33" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn
+Tiếp địa trụ trung thế 006
+Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
+      </c>
+      <c r="V33" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Di dời TBA Suối Râm 7cắt recloser + 3 ltd nhánh rẽ sông nhạn
+tiếp địa trụ trung thế 006
+tiếp địa trụ trung thế 023a Nhánh rẽ Sông Nhạn</v>
       </c>
       <c r="W33" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
+        <f t="shared" si="14"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Sông Nhạn</v>
       </c>
       <c r="X33" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="30">
+        <f t="shared" si="15"/>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 023A Nhánh rẽ Sông Nhạn</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="43.2">
       <c r="A34">
         <f>ROW()</f>
         <v>34</v>
       </c>
       <c r="C34" s="44">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D34" s="44"/>
       <c r="E34" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G34" s="47" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>231</v>
@@ -7628,72 +7762,84 @@
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="24" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="O34" s="26" t="e">
-        <f t="array" aca="1" ref="O34" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,K34:L34)</f>
-        <v>#NAME?</v>
+      <c r="O34" s="26" t="str">
+        <f t="array" ref="O34">_xlfn.TEXTJOIN(CHAR(10),TRUE,K34:L34)</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326
+Tiếp địa trụ trung thế 351</v>
       </c>
       <c r="P34" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="Q34" s="26" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <f t="shared" si="9"/>
+        <v>Nhánh rẽ Nam Hà</v>
+      </c>
+      <c r="Q34" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326
+Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
       </c>
       <c r="R34" s="35">
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="S34" t="s">
         <v>136</v>
       </c>
       <c r="T34">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="U34" s="26" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="V34" s="26" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="U34" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326
+Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
+      </c>
+      <c r="V34" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Lắp đặt trạm biến áp Nam Hà 3B tách lưới hạ thế trạm Nam Hà 3 sang nhận điện trạm Nam Hà 3B đấu nối đường dây trung thế xây dựng mớicắt recloser + 3 ltd nhánh rẽ nam hà
+cắt 3 ltd xuân bảo - nam hà
+tiếp địa trụ trung thế 326
+tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
       </c>
       <c r="W34" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
+        <f t="shared" si="14"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
       </c>
       <c r="X34" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" ht="60">
+        <f t="shared" si="15"/>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="28.8">
       <c r="A35">
         <f>ROW()</f>
         <v>35</v>
       </c>
       <c r="C35" s="44">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="D35" s="44"/>
       <c r="E35" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F35" s="45" t="s">
-        <v>260</v>
+        <v>173</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>174</v>
       </c>
       <c r="G35" s="47" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>231</v>
@@ -7703,56 +7849,64 @@
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="24" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="O35" s="26" t="e">
-        <f t="array" aca="1" ref="O35" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,K35:L35)</f>
-        <v>#NAME?</v>
+      <c r="O35" s="26" t="str">
+        <f t="array" ref="O35">_xlfn.TEXTJOIN(CHAR(10),TRUE,K35:L35)</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147</v>
       </c>
       <c r="P35" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>Nhánh rẽ Nam Hà</v>
-      </c>
-      <c r="Q35" s="26" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <f t="shared" si="9"/>
+        <v>Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="Q35" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="R35" s="35">
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="S35" t="s">
         <v>136</v>
       </c>
       <c r="T35">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="U35" s="26" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="V35" s="26" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="U35" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="V35" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Lắp đặt trạm biến áp Tân Bảo 3A, tách lưới hạ thế trạm Tân Bảo 3 sang nhận điện trạm Tân Bảo 3Acắt recloser + 3 ltd nhánh rẽ tân bảo
+tiếp địa trụ trung thế 117
+tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="W35" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
+        <f t="shared" si="14"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="X35" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="30">
+        <f t="shared" si="15"/>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="57.6">
       <c r="A36">
         <f>ROW()</f>
         <v>36</v>
@@ -7762,13 +7916,13 @@
       </c>
       <c r="D36" s="44"/>
       <c r="E36" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>260</v>
       </c>
       <c r="G36" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>231</v>
@@ -7778,131 +7932,152 @@
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="24" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="O36" s="26" t="e">
-        <f t="array" aca="1" ref="O36" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,K36:L36)</f>
-        <v>#NAME?</v>
+      <c r="O36" s="26" t="str">
+        <f t="array" ref="O36">_xlfn.TEXTJOIN(CHAR(10),TRUE,K36:L36)</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326
+Tiếp địa trụ trung thế 351</v>
       </c>
       <c r="P36" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>Nhánh rẽ Tân Bảo</v>
-      </c>
-      <c r="Q36" s="26" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <f t="shared" si="9"/>
+        <v>Nhánh rẽ Nam Hà</v>
+      </c>
+      <c r="Q36" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326
+Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
       </c>
       <c r="R36" s="35">
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="S36" t="s">
         <v>136</v>
       </c>
       <c r="T36">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="U36" s="26" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="V36" s="26" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="U36" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà
+Cắt 3 LTD Xuân Bảo - Nam Hà
+Tiếp địa trụ trung thế 326
+Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
+      </c>
+      <c r="V36" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Di dời TBA Nam Hà 1 từ trụ 344 trục chính tuyến 477 Xuân Bảo về trụ 344/01 XDM, Trồng đôn trụ trung thế 335A, 344, 348A; trồng đôn trụ hạ thế 339A trục chính tuyến 477 Xuân Bảo
+cắt recloser + 3 ltd nhánh rẽ nam hà
+cắt 3 ltd xuân bảo - nam hà
+tiếp địa trụ trung thế 326
+tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
       </c>
       <c r="W36" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
+        <f t="shared" si="14"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Nam Hà</v>
       </c>
       <c r="X36" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="30">
+        <f t="shared" si="15"/>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 351Nhánh rẽ Nam Hà</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="28.8">
       <c r="A37">
         <f>ROW()</f>
         <v>37</v>
       </c>
       <c r="C37" s="44">
-        <v>44082</v>
+        <v>44062</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="6" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="G37" s="47" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>231</v>
       </c>
       <c r="I37" s="59" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="24" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="O37" s="26" t="e">
-        <f t="array" aca="1" ref="O37" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,K37:L37)</f>
-        <v>#NAME?</v>
+      <c r="O37" s="26" t="str">
+        <f t="array" ref="O37">_xlfn.TEXTJOIN(CHAR(10),TRUE,K37:L37)</f>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147</v>
       </c>
       <c r="P37" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>TBA Sông Ray 7</v>
-      </c>
-      <c r="Q37" s="26" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <f t="shared" si="9"/>
+        <v>Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="Q37" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="R37" s="35">
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="S37" t="s">
         <v>136</v>
       </c>
       <c r="T37">
-        <f>WEEKDAY(R37)</f>
-        <v>5</v>
-      </c>
-      <c r="U37" s="26" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="V37" s="26" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="U37" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo
+Tiếp địa trụ trung thế 117
+Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
+      <c r="V37" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Di dời TBA Tân Bảo 3cắt recloser + 3 ltd nhánh rẽ tân bảo
+tiếp địa trụ trung thế 117
+tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="W37" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Cắt FCO TBA Sông Ray 7</v>
+        <f t="shared" si="14"/>
+        <v>Cắt Recloser + 3 LTD Nhánh rẽ Tân Bảo</v>
       </c>
       <c r="X37" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Tiếp địa tại Tiếp địa hạ thế tại MCCB TBA Sông Ray 7TBA Sông Ray 7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="45">
+        <f t="shared" si="15"/>
+        <v>Tiếp địa tại Tiếp địa trụ trung thế 147Nhánh rẽ Tân Bảo</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38">
         <f>ROW()</f>
         <v>38</v>
@@ -7912,41 +8087,45 @@
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="6" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G38" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="H38" s="6"/>
+        <v>237</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="I38" s="59" t="s">
         <v>164</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="24" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="M38" s="6"/>
       <c r="N38" s="26">
-        <f t="shared" ref="N38" si="19">M38+14</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="O38" s="26" t="e">
-        <f t="array" aca="1" ref="O38" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,K38:L38)</f>
-        <v>#NAME?</v>
+      <c r="O38" s="26" t="str">
+        <f t="array" ref="O38">_xlfn.TEXTJOIN(CHAR(10),TRUE,K38:L38)</f>
+        <v>Cắt FCO + MCCB TBA Sông Ray 7
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 7</v>
       </c>
       <c r="P38" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>Nhánh rẽ Thừa Đức 11</v>
-      </c>
-      <c r="Q38" s="26" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+        <f t="shared" si="9"/>
+        <v>TBA Sông Ray 7</v>
+      </c>
+      <c r="Q38" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Cắt FCO + MCCB TBA Sông Ray 7
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 7TBA Sông Ray 7</v>
       </c>
       <c r="R38" s="35">
         <v>44098</v>
@@ -7958,2338 +8137,2428 @@
         <f>WEEKDAY(R38)</f>
         <v>5</v>
       </c>
-      <c r="U38" s="26" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="V38" s="26" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#NAME?</v>
+      <c r="U38" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Cắt FCO + MCCB TBA Sông Ray 7
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 7TBA Sông Ray 7</v>
+      </c>
+      <c r="V38" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Đấu nối hạ thế, Nâng cấp đường dây hạ thế sau TBA Sông Ray 7cắt fco + mccb tba sông ray 7
+tiếp địa hạ thế tại mccb tba sông ray 7TBA Sông Ray 7</v>
       </c>
       <c r="W38" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Cắt FCO Nhánh rẽ Thừa Đức 11</v>
+        <f t="shared" si="14"/>
+        <v>Cắt FCO TBA Sông Ray 7</v>
       </c>
       <c r="X38" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>Tiếp địa tại Tiếp địa trụ trạm Thừa Đức 11Nhánh rẽ Thừa Đức 11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="45">
+        <f t="shared" si="15"/>
+        <v>Tiếp địa tại Tiếp địa hạ thế tại MCCB TBA Sông Ray 7TBA Sông Ray 7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="43.2">
       <c r="A39">
         <f>ROW()</f>
         <v>39</v>
       </c>
       <c r="C39" s="44">
-        <v>44062</v>
+        <v>44082</v>
       </c>
       <c r="D39" s="44"/>
       <c r="E39" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G39" s="47" t="s">
-        <v>252</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="H39" s="6"/>
       <c r="I39" s="59" t="s">
         <v>164</v>
       </c>
       <c r="J39" s="6"/>
-      <c r="K39" s="45" t="s">
-        <v>247</v>
+      <c r="K39" s="24" t="s">
+        <v>243</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="O39" s="26" t="e">
-        <f t="array" aca="1" ref="O39" ca="1">_xlfn.TEXTJOIN(CHAR(10),TRUE,K39:L39)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
+        <v>244</v>
+      </c>
+      <c r="M39" s="6"/>
+      <c r="N39" s="26">
+        <f t="shared" ref="N39" si="20">M39+14</f>
+        <v>14</v>
+      </c>
+      <c r="O39" s="26" t="str">
+        <f t="array" ref="O39">_xlfn.TEXTJOIN(CHAR(10),TRUE,K39:L39)</f>
+        <v>Cắt 1xFCO nhánh rẽ Thừa Đức 11
+Tiếp địa trụ trạm Thừa Đức 11</v>
+      </c>
+      <c r="P39" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v>Nhánh rẽ Thừa Đức 11</v>
+      </c>
+      <c r="Q39" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Cắt 1xFCO nhánh rẽ Thừa Đức 11
+Tiếp địa trụ trạm Thừa Đức 11Nhánh rẽ Thừa Đức 11</v>
+      </c>
+      <c r="R39" s="35">
+        <v>44098</v>
+      </c>
+      <c r="S39" t="s">
+        <v>136</v>
+      </c>
+      <c r="T39">
+        <f>WEEKDAY(R39)</f>
+        <v>5</v>
+      </c>
+      <c r="U39" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Cắt 1xFCO nhánh rẽ Thừa Đức 11
+Tiếp địa trụ trạm Thừa Đức 11Nhánh rẽ Thừa Đức 11</v>
+      </c>
+      <c r="V39" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Đấu nối lưới trung thế Thừa Đức 11, cấy TBA Thừa Đức 11, tách 1 phần lưới hạ thế TBA Thừa Đức 11 sang nhận điện từ TBA Thừa Đức 11Acắt 1xfco nhánh rẽ thừa đức 11
+tiếp địa trụ trạm thừa đức 11Nhánh rẽ Thừa Đức 11</v>
+      </c>
+      <c r="W39" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v>Cắt FCO Nhánh rẽ Thừa Đức 11</v>
+      </c>
+      <c r="X39" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>Tiếp địa tại Tiếp địa trụ trạm Thừa Đức 11Nhánh rẽ Thừa Đức 11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="43.2">
       <c r="A40">
         <f>ROW()</f>
         <v>40</v>
       </c>
       <c r="C40" s="44">
-        <v>44091</v>
+        <v>44062</v>
       </c>
       <c r="D40" s="44"/>
       <c r="E40" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G40" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="I40" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="J40" s="6"/>
+      <c r="K40" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="O40" s="26" t="str">
+        <f t="array" ref="O40">_xlfn.TEXTJOIN(CHAR(10),TRUE,K40:L40)</f>
+        <v>Cắt 1xFCO nhánh rẽ Suối Râm 7A
+Tiếp địa trụ trung thế 002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="A41">
+        <f>ROW()</f>
+        <v>41</v>
+      </c>
+      <c r="C41" s="44">
+        <v>44091</v>
+      </c>
+      <c r="D41" s="44"/>
+      <c r="E41" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F41" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="G40" s="47" t="s">
+      <c r="G41" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H41" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="I40" s="59" t="s">
+      <c r="I41" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="24" t="s">
+      <c r="J41" s="6"/>
+      <c r="K41" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="26">
-        <f t="shared" ref="N40" si="20">M40+14</f>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="26">
+        <f t="shared" ref="N41" si="21">M41+14</f>
         <v>14</v>
       </c>
-      <c r="O40" s="26" t="str">
-        <f>K40</f>
+      <c r="O41" s="26" t="str">
+        <f>K41</f>
         <v>Cắt 02 MCCB phân đoạn tại trụ HTĐL 01</v>
       </c>
-      <c r="P40" s="26" t="str">
-        <f t="shared" ref="P40:P45" si="21">E40</f>
+      <c r="P41" s="26" t="str">
+        <f t="shared" ref="P41:P46" si="22">E41</f>
         <v>TBA Sông Ray 7</v>
       </c>
-      <c r="Q40" s="26" t="str">
-        <f>O40&amp;E40</f>
+      <c r="Q41" s="26" t="str">
+        <f>O41&amp;E41</f>
         <v>Cắt 02 MCCB phân đoạn tại trụ HTĐL 01TBA Sông Ray 7</v>
       </c>
-      <c r="R40" s="35">
-        <f>C40+14</f>
+      <c r="R41" s="35">
+        <f>C41+14</f>
         <v>44105</v>
       </c>
-      <c r="S40" t="s">
+      <c r="S41" t="s">
         <v>136</v>
       </c>
-      <c r="T40">
-        <f>WEEKDAY(R40)</f>
+      <c r="T41">
+        <f>WEEKDAY(R41)</f>
         <v>5</v>
       </c>
-      <c r="U40" s="26" t="str">
-        <f>O40&amp;E40</f>
+      <c r="U41" s="26" t="str">
+        <f>O41&amp;E41</f>
         <v>Cắt 02 MCCB phân đoạn tại trụ HTĐL 01TBA Sông Ray 7</v>
       </c>
-      <c r="V40" s="26" t="str">
-        <f>F40&amp;LOWER(O40)&amp;E40</f>
+      <c r="V41" s="26" t="str">
+        <f>F41&amp;LOWER(O41)&amp;E41</f>
         <v>Nâng cấp đường dây hạ thế sau TBA Sông Ray 7cắt 02 mccb phân đoạn tại trụ htđl 01TBA Sông Ray 7</v>
       </c>
-      <c r="W40" s="26" t="str">
-        <f t="shared" ref="W40:W45" si="22">"Cắt "&amp;I40&amp;P40</f>
+      <c r="W41" s="26" t="str">
+        <f t="shared" ref="W41:W46" si="23">"Cắt "&amp;I41&amp;P41</f>
         <v>Cắt Cắt 02 MCCB phân đoạn tại trụ HTĐL 01TBA Sông Ray 7</v>
       </c>
-      <c r="X40" s="26" t="str">
-        <f t="shared" ref="X40:X45" si="23">"Tiếp địa tại "&amp;L40&amp;E40</f>
+      <c r="X41" s="26" t="str">
+        <f t="shared" ref="X41:X46" si="24">"Tiếp địa tại "&amp;L41&amp;E41</f>
         <v>Tiếp địa tại TBA Sông Ray 7</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="60">
-      <c r="A41">
-        <f>ROW()</f>
-        <v>41</v>
-      </c>
-      <c r="B41" s="36" t="s">
+    <row r="42" spans="1:24" ht="57.6">
+      <c r="A42">
+        <f>ROW()</f>
+        <v>42</v>
+      </c>
+      <c r="B42" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C42" s="62" t="s">
         <v>330</v>
       </c>
-      <c r="D41" s="44" t="s">
+      <c r="D42" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="F41" s="45" t="s">
+      <c r="F42" s="45" t="s">
         <v>309</v>
       </c>
-      <c r="G41" s="47" t="s">
+      <c r="G42" s="47" t="s">
         <v>310</v>
       </c>
-      <c r="I41" s="61" t="s">
+      <c r="I42" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="K41" s="61" t="s">
+      <c r="K42" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L42" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="O41" s="51" t="str">
-        <f t="shared" ref="O41:O45" si="24">K41&amp;CHAR(10)&amp;L41</f>
+      <c r="O42" s="51" t="str">
+        <f t="shared" ref="O42:O46" si="25">K42&amp;CHAR(10)&amp;L42</f>
         <v>Cắt LBS khí Xuân Đà + 3 LTD
 Cắt LBS khí Trung Ngãi + 3 LTD
 Tiếp địa trụ trung thế trụ 3xFCO Nhánh rẽ An Phú Khánh 7</v>
       </c>
-      <c r="P41" s="26" t="str">
-        <f t="shared" si="21"/>
+      <c r="P42" s="26" t="str">
+        <f t="shared" si="22"/>
         <v>Nhánh rẽ An Phú Khánh 7</v>
       </c>
-      <c r="W41" s="26" t="str">
-        <f t="shared" si="22"/>
+      <c r="W42" s="26" t="str">
+        <f t="shared" si="23"/>
         <v>Cắt Cắt LBS khí Xuân Đà + 3 LTD
 Cắt LBS khí Trung Ngãi + 3 LTDNhánh rẽ An Phú Khánh 7</v>
       </c>
-      <c r="X41" s="26" t="str">
-        <f t="shared" si="23"/>
+      <c r="X42" s="26" t="str">
+        <f t="shared" si="24"/>
         <v>Tiếp địa tại Tiếp địa trụ trung thế trụ 3xFCO Nhánh rẽ An Phú Khánh 7Nhánh rẽ An Phú Khánh 7</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="60">
-      <c r="A42">
-        <f>ROW()</f>
-        <v>42</v>
-      </c>
-      <c r="B42" s="36" t="s">
+    <row r="43" spans="1:24" ht="57.6">
+      <c r="A43">
+        <f>ROW()</f>
+        <v>43</v>
+      </c>
+      <c r="B43" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C43" s="62" t="s">
         <v>330</v>
       </c>
-      <c r="D42" s="44" t="s">
+      <c r="D43" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="F42" s="45" t="s">
+      <c r="F43" s="45" t="s">
         <v>313</v>
       </c>
-      <c r="G42" s="47" t="s">
+      <c r="G43" s="47" t="s">
         <v>314</v>
       </c>
-      <c r="I42" s="61" t="s">
+      <c r="I43" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="K42" s="61" t="s">
+      <c r="K43" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="L43" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="O42" s="51" t="str">
-        <f t="shared" si="24"/>
+      <c r="O43" s="51" t="str">
+        <f t="shared" si="25"/>
         <v>Cắt LBS khí Xuân Đà + 3 LTD
 Cắt LBS khí Trung Ngãi + 3 LTD
 Tiếp địa trụ trung thế trụ 3xFCO Nhánh rẽ Hà Phương 4</v>
       </c>
-      <c r="P42" s="26" t="str">
-        <f t="shared" si="21"/>
+      <c r="P43" s="26" t="str">
+        <f t="shared" si="22"/>
         <v>Nhánh rẽ Hà Phương 4</v>
       </c>
-      <c r="W42" s="26" t="str">
-        <f t="shared" si="22"/>
+      <c r="W43" s="26" t="str">
+        <f t="shared" si="23"/>
         <v>Cắt Cắt LBS khí Xuân Đà + 3 LTD
 Cắt LBS khí Trung Ngãi + 3 LTDNhánh rẽ Hà Phương 4</v>
       </c>
-      <c r="X42" s="26" t="str">
-        <f t="shared" si="23"/>
+      <c r="X43" s="26" t="str">
+        <f t="shared" si="24"/>
         <v>Tiếp địa tại Tiếp địa trụ trung thế trụ 3xFCO Nhánh rẽ Hà Phương 4Nhánh rẽ Hà Phương 4</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="75">
-      <c r="A43">
-        <f>ROW()</f>
-        <v>43</v>
-      </c>
-      <c r="B43" s="36" t="s">
+    <row r="44" spans="1:24" ht="57.6">
+      <c r="A44">
+        <f>ROW()</f>
+        <v>44</v>
+      </c>
+      <c r="B44" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="C44" s="62" t="s">
         <v>330</v>
       </c>
-      <c r="D43" s="44" t="s">
+      <c r="D44" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="F43" s="45" t="s">
+      <c r="F44" s="45" t="s">
         <v>318</v>
       </c>
-      <c r="G43" s="47" t="s">
+      <c r="G44" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="I43" s="61" t="s">
+      <c r="I44" s="61" t="s">
         <v>320</v>
       </c>
-      <c r="K43" s="61" t="s">
+      <c r="K44" s="61" t="s">
         <v>321</v>
       </c>
-      <c r="L43" s="6"/>
-      <c r="O43" s="51" t="str">
-        <f t="shared" si="24"/>
+      <c r="L44" s="6"/>
+      <c r="O44" s="51" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">Cắt FCO Nhánh rẽ Cơ sở gạch Trần Thị Thế
 Tiếp địa tại trụ 006 Nhánh rẽ Cơ sở gạch Trần Thị Thế
 </v>
       </c>
-      <c r="P43" s="26" t="str">
-        <f t="shared" si="21"/>
+      <c r="P44" s="26" t="str">
+        <f t="shared" si="22"/>
         <v>Nhánh rẽ Cơ sở gạch Trần Thị Thế</v>
       </c>
-      <c r="W43" s="26" t="str">
-        <f t="shared" si="22"/>
+      <c r="W44" s="26" t="str">
+        <f t="shared" si="23"/>
         <v>Cắt Cắt FCO Nhánh rẽ Cơ sở gạch Trần Thị ThếNhánh rẽ Cơ sở gạch Trần Thị Thế</v>
       </c>
-      <c r="X43" s="26" t="str">
-        <f t="shared" si="23"/>
+      <c r="X44" s="26" t="str">
+        <f t="shared" si="24"/>
         <v>Tiếp địa tại Nhánh rẽ Cơ sở gạch Trần Thị Thế</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="45">
-      <c r="A44">
-        <f>ROW()</f>
-        <v>44</v>
-      </c>
-      <c r="B44" s="36" t="s">
+    <row r="45" spans="1:24" ht="43.2">
+      <c r="A45">
+        <f>ROW()</f>
+        <v>45</v>
+      </c>
+      <c r="B45" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="C45" s="62" t="s">
         <v>330</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D45" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F44" s="45" t="s">
+      <c r="F45" s="45" t="s">
         <v>323</v>
       </c>
-      <c r="G44" s="45" t="s">
+      <c r="G45" s="45" t="s">
         <v>324</v>
       </c>
-      <c r="I44" s="61" t="s">
+      <c r="I45" s="61" t="s">
         <v>325</v>
       </c>
-      <c r="K44" s="61"/>
-      <c r="L44" s="45" t="s">
+      <c r="K45" s="61"/>
+      <c r="L45" s="45" t="s">
         <v>326</v>
       </c>
-      <c r="O44" s="51" t="str">
-        <f t="shared" si="24"/>
+      <c r="O45" s="51" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 Tiếp địa trụ 078 nhánh rẽ Trảng Táo</v>
       </c>
-      <c r="P44" s="26" t="str">
-        <f t="shared" si="21"/>
+      <c r="P45" s="26" t="str">
+        <f t="shared" si="22"/>
         <v>Nhánh rẽ Trảng Táo</v>
       </c>
-      <c r="W44" s="26" t="str">
-        <f t="shared" si="22"/>
+      <c r="W45" s="26" t="str">
+        <f t="shared" si="23"/>
         <v>Cắt Kết hợp Cắt MC 479 Gia Ui
 Cắt Recloser Mũi Tàu
 Cắt Recloser ESG ĐạtNhánh rẽ Trảng Táo</v>
       </c>
-      <c r="X44" s="26" t="str">
-        <f t="shared" si="23"/>
+      <c r="X45" s="26" t="str">
+        <f t="shared" si="24"/>
         <v>Tiếp địa tại Tiếp địa trụ 078 nhánh rẽ Trảng TáoNhánh rẽ Trảng Táo</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="60">
-      <c r="A45">
-        <f>ROW()</f>
-        <v>45</v>
-      </c>
-      <c r="B45" s="36" t="s">
+    <row r="46" spans="1:24" ht="57.6">
+      <c r="A46">
+        <f>ROW()</f>
+        <v>46</v>
+      </c>
+      <c r="B46" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C46" s="62" t="s">
         <v>330</v>
       </c>
-      <c r="D45" s="44" t="s">
+      <c r="D46" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="F45" s="45" t="s">
+      <c r="F46" s="45" t="s">
         <v>309</v>
       </c>
-      <c r="G45" s="47" t="s">
+      <c r="G46" s="47" t="s">
         <v>328</v>
       </c>
-      <c r="I45" s="61" t="s">
+      <c r="I46" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="K45" s="61" t="s">
+      <c r="K46" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="L46" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="O45" s="51" t="str">
-        <f t="shared" si="24"/>
+      <c r="O46" s="51" t="str">
+        <f t="shared" si="25"/>
         <v>Cắt LBS khí Xuân Đà + 3 LTD
 Cắt LBS khí Trung Ngãi + 3 LTD
 Tiếp địa trụ trung thế trụ 3xFCO Nhánh rẽ An Phát Tiến</v>
       </c>
-      <c r="P45" s="26" t="str">
-        <f t="shared" si="21"/>
+      <c r="P46" s="26" t="str">
+        <f t="shared" si="22"/>
         <v>Nhánh rẽ An Phát Tiến</v>
       </c>
-      <c r="W45" s="26" t="str">
-        <f t="shared" si="22"/>
+      <c r="W46" s="26" t="str">
+        <f t="shared" si="23"/>
         <v>Cắt Cắt LBS khí Xuân Đà + 3 LTD
 Cắt LBS khí Trung Ngãi + 3 LTDNhánh rẽ An Phát Tiến</v>
       </c>
-      <c r="X45" s="26" t="str">
-        <f t="shared" si="23"/>
+      <c r="X46" s="26" t="str">
+        <f t="shared" si="24"/>
         <v>Tiếp địa tại Tiếp địa trụ trung thế trụ 3xFCO Nhánh rẽ An Phát TiếnNhánh rẽ An Phát Tiến</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="90">
-      <c r="A46">
-        <f>ROW()</f>
-        <v>46</v>
-      </c>
-      <c r="B46" s="36" t="s">
+    <row r="47" spans="1:24" ht="86.4">
+      <c r="A47">
+        <f>ROW()</f>
+        <v>47</v>
+      </c>
+      <c r="B47" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="C47" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="D46" s="44" t="s">
+      <c r="D47" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="F46" s="45" t="s">
+      <c r="F47" s="45" t="s">
         <v>335</v>
       </c>
-      <c r="G46" s="47" t="s">
+      <c r="G47" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="I46" s="61" t="s">
+      <c r="I47" s="61" t="s">
         <v>337</v>
       </c>
-      <c r="K46" s="61" t="s">
+      <c r="K47" s="61" t="s">
         <v>337</v>
       </c>
-      <c r="L46" s="6" t="s">
+      <c r="L47" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="O46" s="51" t="str">
-        <f t="shared" ref="O46:O52" si="25">K46&amp;CHAR(10)&amp;L46</f>
+      <c r="O47" s="51" t="str">
+        <f t="shared" ref="O47:O53" si="26">K47&amp;CHAR(10)&amp;L47</f>
         <v>3xFCO  nhánh rẽ Hoàng Thi Xuân Hương
 3xFCO  nhánh rẽ Vi Solar
 Tiếp địa trung thế 021 nhánh rẽ Hoàng Thi Xuân Hương
 Tiếp địa trung thế 022 nhánh rẽ Hoàng Thi Xuân Hương</v>
       </c>
-      <c r="P46" s="26" t="str">
-        <f t="shared" ref="P46:P52" si="26">E46</f>
+      <c r="P47" s="26" t="str">
+        <f t="shared" ref="P47:P53" si="27">E47</f>
         <v>Nhánh rẽ Hoàng Thi Xuân Hương</v>
       </c>
-      <c r="W46" s="26" t="str">
-        <f t="shared" ref="W46:W52" si="27">"Cắt "&amp;I46&amp;P46</f>
+      <c r="W47" s="26" t="str">
+        <f t="shared" ref="W47:W53" si="28">"Cắt "&amp;I47&amp;P47</f>
         <v>Cắt 3xFCO  nhánh rẽ Hoàng Thi Xuân Hương
 3xFCO  nhánh rẽ Vi Solar
 Tiếp địa trung thế 021 nhánh rẽ Hoàng Thi Xuân HươngNhánh rẽ Hoàng Thi Xuân Hương</v>
       </c>
-      <c r="X46" s="26" t="str">
-        <f t="shared" ref="X46:X52" si="28">"Tiếp địa tại "&amp;L46&amp;E46</f>
+      <c r="X47" s="26" t="str">
+        <f t="shared" ref="X47:X53" si="29">"Tiếp địa tại "&amp;L47&amp;E47</f>
         <v>Tiếp địa tại Tiếp địa trung thế 022 nhánh rẽ Hoàng Thi Xuân HươngNhánh rẽ Hoàng Thi Xuân Hương</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="90">
-      <c r="A47">
-        <f>ROW()</f>
+    <row r="48" spans="1:24" ht="72">
+      <c r="A48">
+        <f>ROW()</f>
+        <v>48</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>264</v>
+      </c>
+      <c r="D48" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="C47" s="62" t="s">
-        <v>264</v>
-      </c>
-      <c r="D47" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47" s="6" t="s">
+      <c r="E48" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="F47" s="45" t="s">
+      <c r="F48" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="G47" s="47" t="s">
+      <c r="G48" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="I47" s="61" t="s">
+      <c r="I48" s="61" t="s">
         <v>342</v>
       </c>
-      <c r="K47" s="61" t="s">
+      <c r="K48" s="61" t="s">
         <v>343</v>
       </c>
-      <c r="L47" s="24" t="s">
+      <c r="L48" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="O47" s="51" t="str">
-        <f t="shared" si="25"/>
+      <c r="O48" s="51" t="str">
+        <f t="shared" si="26"/>
         <v>Cắt LBS khí Xuân Thành + 3 LTD
 Tiếp địa trung thế 042 Nhánh rẽ Tân Hữu
 Tiếp địa hạ thế TBA Tân Hữu 2
 Tiếp địa trung thế 044, 045 Nhánh rẽ Tân Hữu</v>
       </c>
-      <c r="P47" s="26" t="str">
-        <f t="shared" si="26"/>
+      <c r="P48" s="26" t="str">
+        <f t="shared" si="27"/>
         <v>Nhánh rẽ Tân Hữu</v>
       </c>
-      <c r="W47" s="26" t="str">
-        <f t="shared" si="27"/>
+      <c r="W48" s="26" t="str">
+        <f t="shared" si="28"/>
         <v>Cắt Cắt LBS khí Xuân Thành + 3 LTDNhánh rẽ Tân Hữu</v>
       </c>
-      <c r="X47" s="26" t="str">
-        <f t="shared" si="28"/>
+      <c r="X48" s="26" t="str">
+        <f t="shared" si="29"/>
         <v>Tiếp địa tại Tiếp địa hạ thế TBA Tân Hữu 2
 Tiếp địa trung thế 044, 045 Nhánh rẽ Tân HữuNhánh rẽ Tân Hữu</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="75">
-      <c r="A48">
-        <f>ROW()</f>
-        <v>48</v>
-      </c>
-      <c r="B48" s="36" t="s">
+    <row r="49" spans="1:24" ht="86.4">
+      <c r="A49">
+        <f>ROW()</f>
+        <v>49</v>
+      </c>
+      <c r="B49" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C49" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="D48" s="44" t="s">
+      <c r="D49" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E49" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="F48" s="45" t="s">
+      <c r="F49" s="45" t="s">
         <v>335</v>
       </c>
-      <c r="G48" s="47" t="s">
+      <c r="G49" s="47" t="s">
         <v>346</v>
       </c>
-      <c r="I48" s="61" t="s">
+      <c r="I49" s="61" t="s">
         <v>342</v>
       </c>
-      <c r="K48" s="61" t="s">
+      <c r="K49" s="61" t="s">
         <v>349</v>
       </c>
-      <c r="L48" s="61" t="s">
+      <c r="L49" s="61" t="s">
         <v>347</v>
       </c>
-      <c r="O48" s="51" t="str">
-        <f t="shared" si="25"/>
+      <c r="O49" s="51" t="str">
+        <f t="shared" si="26"/>
         <v>Cắt LBS khí Xuân Thành + 3 LTD
 Tiếp địa trung thế 092 tuyến 473 Xuân Trường
 Tiếp địa trung thế 145, 146 tuyến 473 Xuân Trường
 Tiếp địa hạ thế TBA Xuân Thành 4</v>
       </c>
-      <c r="P48" s="26" t="str">
-        <f t="shared" si="26"/>
+      <c r="P49" s="26" t="str">
+        <f t="shared" si="27"/>
         <v>473 Xuân Trường</v>
       </c>
-      <c r="W48" s="26" t="str">
-        <f t="shared" si="27"/>
+      <c r="W49" s="26" t="str">
+        <f t="shared" si="28"/>
         <v>Cắt Cắt LBS khí Xuân Thành + 3 LTD473 Xuân Trường</v>
       </c>
-      <c r="X48" s="26" t="str">
-        <f t="shared" si="28"/>
+      <c r="X49" s="26" t="str">
+        <f t="shared" si="29"/>
         <v>Tiếp địa tại Tiếp địa trung thế 145, 146 tuyến 473 Xuân Trường
 Tiếp địa hạ thế TBA Xuân Thành 4473 Xuân Trường</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="75">
-      <c r="A49">
-        <f>ROW()</f>
-        <v>49</v>
-      </c>
-      <c r="B49" s="36" t="s">
+    <row r="50" spans="1:24" ht="72">
+      <c r="A50">
+        <f>ROW()</f>
+        <v>50</v>
+      </c>
+      <c r="B50" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C50" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="D49" s="44" t="s">
+      <c r="D50" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E50" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="F49" s="45" t="s">
+      <c r="F50" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="G49" s="47" t="s">
+      <c r="G50" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="I49" s="61" t="s">
+      <c r="I50" s="61" t="s">
         <v>342</v>
       </c>
-      <c r="K49" s="61" t="s">
+      <c r="K50" s="61" t="s">
         <v>349</v>
       </c>
-      <c r="L49" s="24" t="s">
+      <c r="L50" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="O49" s="51" t="str">
-        <f t="shared" si="25"/>
+      <c r="O50" s="51" t="str">
+        <f t="shared" si="26"/>
         <v>Cắt LBS khí Xuân Thành + 3 LTD
 Tiếp địa trung thế 092 tuyến 473 Xuân Trường
 Tiếp địa trụ trung thế trụ Tại Trụ 053, 071 Nhánh rẽ Công ty Kim Ngọc Phan</v>
       </c>
-      <c r="P49" s="26" t="str">
-        <f t="shared" si="26"/>
+      <c r="P50" s="26" t="str">
+        <f t="shared" si="27"/>
         <v>Nhánh rẽ Công ty Kim Ngọc Phan</v>
       </c>
-      <c r="W49" s="26" t="str">
-        <f t="shared" si="27"/>
+      <c r="W50" s="26" t="str">
+        <f t="shared" si="28"/>
         <v>Cắt Cắt LBS khí Xuân Thành + 3 LTDNhánh rẽ Công ty Kim Ngọc Phan</v>
       </c>
-      <c r="X49" s="26" t="str">
-        <f t="shared" si="28"/>
+      <c r="X50" s="26" t="str">
+        <f t="shared" si="29"/>
         <v>Tiếp địa tại Tiếp địa trụ trung thế trụ Tại Trụ 053, 071 Nhánh rẽ Công ty Kim Ngọc PhanNhánh rẽ Công ty Kim Ngọc Phan</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="90">
-      <c r="A50">
-        <f>ROW()</f>
-        <v>50</v>
-      </c>
-      <c r="B50" s="36" t="s">
+    <row r="51" spans="1:24" ht="100.8">
+      <c r="A51">
+        <f>ROW()</f>
+        <v>51</v>
+      </c>
+      <c r="B51" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="C50" s="62" t="s">
+      <c r="C51" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="D50" s="44" t="s">
+      <c r="D51" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="F50" s="45" t="s">
+      <c r="F51" s="45" t="s">
         <v>335</v>
       </c>
-      <c r="G50" s="47" t="str">
-        <f>"Từ trụ 042 đến trụ 043 "&amp;E50</f>
+      <c r="G51" s="47" t="str">
+        <f>"Từ trụ 042 đến trụ 043 "&amp;E51</f>
         <v>Từ trụ 042 đến trụ 043 Nhánh rẽ Tam Hiệp 6, 7</v>
       </c>
-      <c r="I50" s="63" t="str">
-        <f>"Cắt 3xFCO "&amp;E50&amp;CHAR(10)&amp;"Tiếp địa trung thế tại trụ "&amp;E50&amp;CHAR(10)&amp;"Tiếp địa hạ thế tại trụ TBA "&amp;E50</f>
+      <c r="I51" s="63" t="str">
+        <f>"Cắt 3xFCO "&amp;E51&amp;CHAR(10)&amp;"Tiếp địa trung thế tại trụ "&amp;E51&amp;CHAR(10)&amp;"Tiếp địa hạ thế tại trụ TBA "&amp;E51</f>
         <v>Cắt 3xFCO Nhánh rẽ Tam Hiệp 6, 7
 Tiếp địa trung thế tại trụ Nhánh rẽ Tam Hiệp 6, 7
 Tiếp địa hạ thế tại trụ TBA Nhánh rẽ Tam Hiệp 6, 7</v>
       </c>
-      <c r="K50" s="61" t="s">
+      <c r="K51" s="61" t="s">
         <v>353</v>
       </c>
-      <c r="L50" s="24" t="s">
+      <c r="L51" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="O50" s="51" t="str">
-        <f t="shared" si="25"/>
+      <c r="O51" s="51" t="str">
+        <f t="shared" si="26"/>
         <v>Cắt 3xFCO Nhánh rẽ Tam Hiệp 6, 7
 Tiếp địa trung thế tại trụ 003 Nhánh rẽ Tam Hiệp 6, 7
 Tiếp địa trung thế tại trụ 045, 060, 068 Nhánh rẽ Tam Hiệp 6, 7
 Tiếp địa hạ thế tại trụ TBA Tam Hiệp 6, Tam Hiệp 7</v>
       </c>
-      <c r="P50" s="26" t="str">
-        <f t="shared" si="26"/>
+      <c r="P51" s="26" t="str">
+        <f t="shared" si="27"/>
         <v>Nhánh rẽ Tam Hiệp 6, 7</v>
       </c>
-      <c r="W50" s="26" t="str">
-        <f t="shared" si="27"/>
+      <c r="W51" s="26" t="str">
+        <f t="shared" si="28"/>
         <v>Cắt Cắt 3xFCO Nhánh rẽ Tam Hiệp 6, 7
 Tiếp địa trung thế tại trụ Nhánh rẽ Tam Hiệp 6, 7
 Tiếp địa hạ thế tại trụ TBA Nhánh rẽ Tam Hiệp 6, 7Nhánh rẽ Tam Hiệp 6, 7</v>
       </c>
-      <c r="X50" s="26" t="str">
-        <f t="shared" si="28"/>
+      <c r="X51" s="26" t="str">
+        <f t="shared" si="29"/>
         <v>Tiếp địa tại Tiếp địa trung thế tại trụ 045, 060, 068 Nhánh rẽ Tam Hiệp 6, 7
 Tiếp địa hạ thế tại trụ TBA Tam Hiệp 6, Tam Hiệp 7Nhánh rẽ Tam Hiệp 6, 7</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="105">
-      <c r="A51">
-        <f>ROW()</f>
-        <v>51</v>
-      </c>
-      <c r="B51" s="36" t="s">
+    <row r="52" spans="1:24" ht="129.6">
+      <c r="A52">
+        <f>ROW()</f>
+        <v>52</v>
+      </c>
+      <c r="B52" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="44" t="s">
+      <c r="C52" s="62"/>
+      <c r="D52" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E52" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="F51" s="24" t="s">
+      <c r="F52" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="G51" s="47" t="s">
+      <c r="G52" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="I51" s="63" t="str">
-        <f t="shared" ref="I51:I109" si="29">"Cắt 3xFCO "&amp;E51&amp;CHAR(10)&amp;"Tiếp địa trung thế tại trụ "&amp;E51&amp;CHAR(10)&amp;"Tiếp địa hạ thế tại trụ TBA "&amp;E51</f>
+      <c r="I52" s="63" t="str">
+        <f t="shared" ref="I52:I110" si="30">"Cắt 3xFCO "&amp;E52&amp;CHAR(10)&amp;"Tiếp địa trung thế tại trụ "&amp;E52&amp;CHAR(10)&amp;"Tiếp địa hạ thế tại trụ TBA "&amp;E52</f>
         <v>Cắt 3xFCO Nhánh rẽ Bùi Đình Đức
 Tiếp địa trung thế tại trụ Nhánh rẽ Bùi Đình Đức
 Tiếp địa hạ thế tại trụ TBA Nhánh rẽ Bùi Đình Đức</v>
       </c>
-      <c r="K51" s="64" t="s">
+      <c r="K52" s="64" t="s">
         <v>358</v>
       </c>
-      <c r="L51" s="24" t="s">
+      <c r="L52" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="O51" s="51" t="str">
-        <f t="shared" si="25"/>
+      <c r="O52" s="51" t="str">
+        <f t="shared" si="26"/>
         <v>Cắt 3xFCO Nhánh rẽ Xuân Phú 9, 10
 Tiếp địa trung thế tại trụ 014 Nhánh rẽ Xuân Phú 9, 10
 Tiếp địa trung thế tại trụ 005 Nhánh rẽ Xuân Phú 9A
 Tiếp địa trung thế tại trụ 002, 019, 022 Nhánh rẽ Bùi Đình Đức
 Tiếp địa trung thế tại trụ 038 Nhánh rẽ Vũ Tuấn Anh</v>
       </c>
-      <c r="P51" s="26" t="str">
-        <f t="shared" si="26"/>
+      <c r="P52" s="26" t="str">
+        <f t="shared" si="27"/>
         <v>Nhánh rẽ Bùi Đình Đức</v>
       </c>
-      <c r="W51" s="26" t="str">
-        <f t="shared" si="27"/>
+      <c r="W52" s="26" t="str">
+        <f t="shared" si="28"/>
         <v>Cắt Cắt 3xFCO Nhánh rẽ Bùi Đình Đức
 Tiếp địa trung thế tại trụ Nhánh rẽ Bùi Đình Đức
 Tiếp địa hạ thế tại trụ TBA Nhánh rẽ Bùi Đình ĐứcNhánh rẽ Bùi Đình Đức</v>
       </c>
-      <c r="X51" s="26" t="str">
-        <f t="shared" si="28"/>
+      <c r="X52" s="26" t="str">
+        <f t="shared" si="29"/>
         <v>Tiếp địa tại Tiếp địa trung thế tại trụ 005 Nhánh rẽ Xuân Phú 9A
 Tiếp địa trung thế tại trụ 002, 019, 022 Nhánh rẽ Bùi Đình Đức
 Tiếp địa trung thế tại trụ 038 Nhánh rẽ Vũ Tuấn AnhNhánh rẽ Bùi Đình Đức</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="120">
-      <c r="A52">
-        <f>ROW()</f>
-        <v>52</v>
-      </c>
-      <c r="B52" s="36" t="s">
+    <row r="53" spans="1:24" ht="129.6">
+      <c r="A53">
+        <f>ROW()</f>
+        <v>53</v>
+      </c>
+      <c r="B53" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="C52" s="62"/>
-      <c r="D52" s="44" t="s">
+      <c r="C53" s="62"/>
+      <c r="D53" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="F52" s="45" t="s">
+      <c r="F53" s="45" t="s">
         <v>335</v>
       </c>
-      <c r="G52" s="47" t="s">
+      <c r="G53" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="I52" s="63" t="str">
-        <f t="shared" si="29"/>
+      <c r="I53" s="63" t="str">
+        <f t="shared" si="30"/>
         <v>Cắt 3xFCO Nhánh rẽ Bàu Sình 4, 5
 Tiếp địa trung thế tại trụ Nhánh rẽ Bàu Sình 4, 5
 Tiếp địa hạ thế tại trụ TBA Nhánh rẽ Bàu Sình 4, 5</v>
       </c>
-      <c r="K52" s="64" t="s">
+      <c r="K53" s="64" t="s">
         <v>362</v>
       </c>
-      <c r="L52" s="24" t="s">
+      <c r="L53" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="O52" s="51" t="str">
-        <f t="shared" si="25"/>
+      <c r="O53" s="51" t="str">
+        <f t="shared" si="26"/>
         <v>Cắt 3xFCO Nhánh rẽ Bàu Sình 4, 5
 Tiếp địa trung thế tại trụ 002 Nhánh rẽ Bàu Sình 4, 5
 Tiếp địa trung thế tại trụ 011, 027 Nhánh rẽ Bàu Sình 4, 5
 Tiếp địa trung thế tại trụ 002 024 Nhánh rẽ Công ty Nam Việt Hoàng
 Tiếp địa trung thế tại trụ 036A/001 Nhánh rẽ Công ty Green ECO</v>
       </c>
-      <c r="P52" s="26" t="str">
-        <f t="shared" si="26"/>
+      <c r="P53" s="26" t="str">
+        <f t="shared" si="27"/>
         <v>Nhánh rẽ Bàu Sình 4, 5</v>
       </c>
-      <c r="W52" s="26" t="str">
-        <f t="shared" si="27"/>
+      <c r="W53" s="26" t="str">
+        <f t="shared" si="28"/>
         <v>Cắt Cắt 3xFCO Nhánh rẽ Bàu Sình 4, 5
 Tiếp địa trung thế tại trụ Nhánh rẽ Bàu Sình 4, 5
 Tiếp địa hạ thế tại trụ TBA Nhánh rẽ Bàu Sình 4, 5Nhánh rẽ Bàu Sình 4, 5</v>
       </c>
-      <c r="X52" s="26" t="str">
-        <f t="shared" si="28"/>
+      <c r="X53" s="26" t="str">
+        <f t="shared" si="29"/>
         <v>Tiếp địa tại Tiếp địa trung thế tại trụ 011, 027 Nhánh rẽ Bàu Sình 4, 5
 Tiếp địa trung thế tại trụ 002 024 Nhánh rẽ Công ty Nam Việt Hoàng
 Tiếp địa trung thế tại trụ 036A/001 Nhánh rẽ Công ty Green ECONhánh rẽ Bàu Sình 4, 5</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="90">
-      <c r="A53">
-        <f>ROW()</f>
-        <v>53</v>
-      </c>
-      <c r="B53" s="36" t="s">
+    <row r="54" spans="1:24" ht="72">
+      <c r="A54">
+        <f>ROW()</f>
+        <v>54</v>
+      </c>
+      <c r="B54" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="D53" s="44" t="s">
+      <c r="D54" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E54" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="F53" s="45" t="s">
+      <c r="F54" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="G53" s="47" t="s">
+      <c r="G54" s="47" t="s">
         <v>365</v>
       </c>
-      <c r="I53" s="63" t="str">
-        <f t="shared" si="29"/>
+      <c r="I54" s="63" t="str">
+        <f t="shared" si="30"/>
         <v>Cắt 3xFCO Nhánh rẽ Bàu Sình 6
 Tiếp địa trung thế tại trụ Nhánh rẽ Bàu Sình 6
 Tiếp địa hạ thế tại trụ TBA Nhánh rẽ Bàu Sình 6</v>
       </c>
-      <c r="K53" s="64" t="s">
+      <c r="K54" s="64" t="s">
         <v>362</v>
       </c>
-      <c r="L53" s="24" t="s">
+      <c r="L54" s="24" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="120">
-      <c r="A54">
-        <f>ROW()</f>
-        <v>54</v>
-      </c>
-      <c r="B54" s="36" t="s">
+    <row r="55" spans="1:24" ht="100.8">
+      <c r="A55">
+        <f>ROW()</f>
+        <v>55</v>
+      </c>
+      <c r="B55" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="D54" s="44" t="s">
+      <c r="D55" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="F54" s="45" t="s">
+      <c r="F55" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="G54" s="47" t="s">
+      <c r="G55" s="47" t="s">
         <v>368</v>
       </c>
-      <c r="I54" s="63" t="str">
-        <f t="shared" si="29"/>
+      <c r="I55" s="63" t="str">
+        <f t="shared" si="30"/>
         <v>Cắt 3xFCO Nhánh rẽ Trang Trại Nguyễn Đăng Nam
 Tiếp địa trung thế tại trụ Nhánh rẽ Trang Trại Nguyễn Đăng Nam
 Tiếp địa hạ thế tại trụ TBA Nhánh rẽ Trang Trại Nguyễn Đăng Nam</v>
       </c>
-      <c r="K54" s="64" t="s">
+      <c r="K55" s="64" t="s">
         <v>369</v>
       </c>
-      <c r="L54" s="24" t="s">
+      <c r="L55" s="24" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="45">
-      <c r="A55">
-        <f>ROW()</f>
-        <v>55</v>
-      </c>
-      <c r="B55" s="36"/>
-      <c r="D55" s="44"/>
-      <c r="G55" s="47" t="str">
-        <f t="shared" ref="G55:G65" si="30">"Tại trụ 145 đến trụ 146 "&amp;E55</f>
-        <v xml:space="preserve">Tại trụ 145 đến trụ 146 </v>
-      </c>
-      <c r="I55" s="63" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-      <c r="K55" s="61" t="str">
-        <f t="shared" ref="K53:K109" si="31">I55</f>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-      <c r="L55" s="24" t="str">
-        <f t="shared" ref="L52:L109" si="32">I55</f>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" ht="45">
+    <row r="56" spans="1:24" ht="100.8">
       <c r="A56">
         <f>ROW()</f>
         <v>56</v>
       </c>
-      <c r="D56" s="44"/>
+      <c r="B56" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="C56" s="56">
+        <v>44259</v>
+      </c>
+      <c r="D56" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="F56" s="41" t="s">
+        <v>377</v>
+      </c>
       <c r="G56" s="47" t="str">
+        <f>"Tại trụ 120 đến trụ 135 "&amp;E56</f>
+        <v>Tại trụ 120 đến trụ 135 Nhánh rẽ Láng Me 5B</v>
+      </c>
+      <c r="H56" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="I56" s="63" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Tại trụ 145 đến trụ 146 </v>
-      </c>
-      <c r="I56" s="63" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-      <c r="K56" s="61" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-      <c r="L56" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" ht="45">
+        <v>Cắt 3xFCO Nhánh rẽ Láng Me 5B
+Tiếp địa trung thế tại trụ Nhánh rẽ Láng Me 5B
+Tiếp địa hạ thế tại trụ TBA Nhánh rẽ Láng Me 5B</v>
+      </c>
+      <c r="K56" s="61" t="s">
+        <v>375</v>
+      </c>
+      <c r="L56" s="24" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="43.2">
       <c r="A57">
         <f>ROW()</f>
         <v>57</v>
       </c>
       <c r="D57" s="44"/>
       <c r="G57" s="47" t="str">
+        <f t="shared" ref="G56:G66" si="31">"Tại trụ 145 đến trụ 146 "&amp;E57</f>
+        <v xml:space="preserve">Tại trụ 145 đến trụ 146 </v>
+      </c>
+      <c r="I57" s="63" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Tại trụ 145 đến trụ 146 </v>
-      </c>
-      <c r="I57" s="63" t="str">
-        <f t="shared" si="29"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K57" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="K56:K110" si="32">I57</f>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L57" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" ht="45">
+        <f t="shared" ref="L56:L110" si="33">I57</f>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="43.2">
       <c r="A58">
         <f>ROW()</f>
         <v>58</v>
       </c>
       <c r="D58" s="44"/>
       <c r="G58" s="47" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">Tại trụ 145 đến trụ 146 </v>
+      </c>
+      <c r="I58" s="63" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Tại trụ 145 đến trụ 146 </v>
-      </c>
-      <c r="I58" s="63" t="str">
-        <f t="shared" si="29"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K58" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L58" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" ht="43.2">
       <c r="A59">
         <f>ROW()</f>
         <v>59</v>
       </c>
       <c r="D59" s="44"/>
       <c r="G59" s="47" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">Tại trụ 145 đến trụ 146 </v>
+      </c>
+      <c r="I59" s="63" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Tại trụ 145 đến trụ 146 </v>
-      </c>
-      <c r="I59" s="63" t="str">
-        <f t="shared" si="29"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K59" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L59" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="43.2">
       <c r="A60">
         <f>ROW()</f>
         <v>60</v>
       </c>
       <c r="D60" s="44"/>
       <c r="G60" s="47" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">Tại trụ 145 đến trụ 146 </v>
+      </c>
+      <c r="I60" s="63" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Tại trụ 145 đến trụ 146 </v>
-      </c>
-      <c r="I60" s="63" t="str">
-        <f t="shared" si="29"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K60" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L60" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="43.2">
       <c r="A61">
         <f>ROW()</f>
         <v>61</v>
       </c>
       <c r="D61" s="44"/>
       <c r="G61" s="47" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">Tại trụ 145 đến trụ 146 </v>
+      </c>
+      <c r="I61" s="63" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Tại trụ 145 đến trụ 146 </v>
-      </c>
-      <c r="I61" s="63" t="str">
-        <f t="shared" si="29"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K61" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L61" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="43.2">
       <c r="A62">
         <f>ROW()</f>
         <v>62</v>
       </c>
       <c r="D62" s="44"/>
       <c r="G62" s="47" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">Tại trụ 145 đến trụ 146 </v>
+      </c>
+      <c r="I62" s="63" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Tại trụ 145 đến trụ 146 </v>
-      </c>
-      <c r="I62" s="63" t="str">
-        <f t="shared" si="29"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K62" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L62" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="43.2">
       <c r="A63">
         <f>ROW()</f>
         <v>63</v>
       </c>
       <c r="D63" s="44"/>
       <c r="G63" s="47" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">Tại trụ 145 đến trụ 146 </v>
+      </c>
+      <c r="I63" s="63" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Tại trụ 145 đến trụ 146 </v>
-      </c>
-      <c r="I63" s="63" t="str">
-        <f t="shared" si="29"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K63" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L63" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="43.2">
       <c r="A64">
         <f>ROW()</f>
         <v>64</v>
       </c>
       <c r="D64" s="44"/>
       <c r="G64" s="47" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">Tại trụ 145 đến trụ 146 </v>
+      </c>
+      <c r="I64" s="63" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">Tại trụ 145 đến trụ 146 </v>
-      </c>
-      <c r="I64" s="63" t="str">
-        <f t="shared" si="29"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K64" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L64" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="43.2">
       <c r="A65">
         <f>ROW()</f>
         <v>65</v>
       </c>
       <c r="D65" s="44"/>
       <c r="G65" s="47" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">Tại trụ 145 đến trụ 146 </v>
+      </c>
+      <c r="I65" s="63" t="str">
         <f t="shared" si="30"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+      <c r="K65" s="61" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+      <c r="L65" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="43.2">
+      <c r="A66">
+        <f>ROW()</f>
+        <v>66</v>
+      </c>
+      <c r="D66" s="44"/>
+      <c r="G66" s="47" t="str">
+        <f t="shared" si="31"/>
         <v xml:space="preserve">Tại trụ 145 đến trụ 146 </v>
       </c>
-      <c r="I65" s="63" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-      <c r="K65" s="61" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-      <c r="L65" s="24" t="str">
+      <c r="I66" s="63" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+      <c r="K66" s="61" t="str">
         <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="45">
-      <c r="A66">
-        <f>ROW()</f>
-        <v>66</v>
-      </c>
-      <c r="D66" s="44"/>
-      <c r="I66" s="63" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-      <c r="K66" s="61" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
       <c r="L66" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="43.2">
       <c r="A67">
         <f>ROW()</f>
         <v>67</v>
       </c>
       <c r="D67" s="44"/>
       <c r="I67" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K67" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L67" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="43.2">
       <c r="A68">
         <f>ROW()</f>
         <v>68</v>
       </c>
       <c r="D68" s="44"/>
       <c r="I68" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K68" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L68" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="43.2">
       <c r="A69">
         <f>ROW()</f>
         <v>69</v>
       </c>
       <c r="D69" s="44"/>
       <c r="I69" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K69" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L69" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="43.2">
       <c r="A70">
         <f>ROW()</f>
         <v>70</v>
       </c>
       <c r="D70" s="44"/>
       <c r="I70" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K70" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L70" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="43.2">
       <c r="A71">
         <f>ROW()</f>
         <v>71</v>
       </c>
       <c r="D71" s="44"/>
       <c r="I71" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K71" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L71" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="43.2">
       <c r="A72">
         <f>ROW()</f>
         <v>72</v>
       </c>
       <c r="D72" s="44"/>
       <c r="I72" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K72" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L72" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="43.2">
       <c r="A73">
         <f>ROW()</f>
         <v>73</v>
       </c>
       <c r="D73" s="44"/>
       <c r="I73" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K73" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L73" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="43.2">
       <c r="A74">
         <f>ROW()</f>
         <v>74</v>
       </c>
       <c r="D74" s="44"/>
       <c r="I74" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K74" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L74" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="43.2">
       <c r="A75">
         <f>ROW()</f>
         <v>75</v>
       </c>
       <c r="D75" s="44"/>
       <c r="I75" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K75" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L75" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="43.2">
       <c r="A76">
         <f>ROW()</f>
         <v>76</v>
       </c>
       <c r="D76" s="44"/>
       <c r="I76" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K76" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L76" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="43.2">
       <c r="A77">
         <f>ROW()</f>
         <v>77</v>
       </c>
       <c r="D77" s="44"/>
       <c r="I77" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K77" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L77" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="43.2">
       <c r="A78">
         <f>ROW()</f>
         <v>78</v>
       </c>
       <c r="D78" s="44"/>
       <c r="I78" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K78" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L78" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="43.2">
       <c r="A79">
         <f>ROW()</f>
         <v>79</v>
       </c>
       <c r="D79" s="44"/>
       <c r="I79" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K79" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L79" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="43.2">
       <c r="A80">
         <f>ROW()</f>
         <v>80</v>
       </c>
       <c r="D80" s="44"/>
       <c r="I80" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K80" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L80" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="43.2">
       <c r="A81">
         <f>ROW()</f>
         <v>81</v>
       </c>
       <c r="D81" s="44"/>
       <c r="I81" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K81" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L81" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="43.2">
       <c r="A82">
         <f>ROW()</f>
         <v>82</v>
       </c>
       <c r="D82" s="44"/>
       <c r="I82" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K82" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L82" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="43.2">
       <c r="A83">
         <f>ROW()</f>
         <v>83</v>
       </c>
       <c r="D83" s="44"/>
       <c r="I83" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K83" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L83" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="43.2">
       <c r="A84">
         <f>ROW()</f>
         <v>84</v>
       </c>
       <c r="D84" s="44"/>
       <c r="I84" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K84" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L84" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="43.2">
       <c r="A85">
         <f>ROW()</f>
         <v>85</v>
       </c>
       <c r="D85" s="44"/>
       <c r="I85" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K85" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L85" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="43.2">
       <c r="A86">
         <f>ROW()</f>
         <v>86</v>
       </c>
       <c r="D86" s="44"/>
       <c r="I86" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K86" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L86" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="43.2">
       <c r="A87">
         <f>ROW()</f>
         <v>87</v>
       </c>
       <c r="D87" s="44"/>
       <c r="I87" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K87" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L87" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="43.2">
       <c r="A88">
         <f>ROW()</f>
         <v>88</v>
       </c>
       <c r="D88" s="44"/>
       <c r="I88" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K88" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L88" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="43.2">
       <c r="A89">
         <f>ROW()</f>
         <v>89</v>
       </c>
       <c r="D89" s="44"/>
       <c r="I89" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K89" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L89" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="43.2">
       <c r="A90">
         <f>ROW()</f>
         <v>90</v>
       </c>
       <c r="D90" s="44"/>
       <c r="I90" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K90" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L90" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="43.2">
       <c r="A91">
         <f>ROW()</f>
         <v>91</v>
       </c>
       <c r="D91" s="44"/>
       <c r="I91" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K91" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L91" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="43.2">
       <c r="A92">
         <f>ROW()</f>
         <v>92</v>
       </c>
       <c r="D92" s="44"/>
       <c r="I92" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K92" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L92" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="43.2">
       <c r="A93">
         <f>ROW()</f>
         <v>93</v>
       </c>
       <c r="D93" s="44"/>
       <c r="I93" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K93" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L93" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="43.2">
       <c r="A94">
         <f>ROW()</f>
         <v>94</v>
       </c>
       <c r="D94" s="44"/>
       <c r="I94" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K94" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L94" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="43.2">
       <c r="A95">
         <f>ROW()</f>
         <v>95</v>
       </c>
       <c r="D95" s="44"/>
       <c r="I95" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K95" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L95" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="43.2">
       <c r="A96">
         <f>ROW()</f>
         <v>96</v>
       </c>
       <c r="D96" s="44"/>
       <c r="I96" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K96" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L96" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="43.2">
       <c r="A97">
         <f>ROW()</f>
         <v>97</v>
       </c>
       <c r="D97" s="44"/>
       <c r="I97" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K97" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L97" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="43.2">
       <c r="A98">
         <f>ROW()</f>
         <v>98</v>
       </c>
       <c r="D98" s="44"/>
       <c r="I98" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K98" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L98" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="43.2">
       <c r="A99">
         <f>ROW()</f>
         <v>99</v>
       </c>
       <c r="D99" s="44"/>
       <c r="I99" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K99" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L99" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="43.2">
       <c r="A100">
         <f>ROW()</f>
         <v>100</v>
       </c>
       <c r="D100" s="44"/>
       <c r="I100" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K100" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L100" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="43.2">
       <c r="A101">
         <f>ROW()</f>
         <v>101</v>
       </c>
       <c r="D101" s="44"/>
       <c r="I101" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K101" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L101" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="43.2">
       <c r="A102">
         <f>ROW()</f>
         <v>102</v>
       </c>
       <c r="D102" s="44"/>
       <c r="I102" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K102" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L102" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="43.2">
       <c r="A103">
         <f>ROW()</f>
         <v>103</v>
       </c>
       <c r="D103" s="44"/>
       <c r="I103" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K103" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L103" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="43.2">
       <c r="A104">
         <f>ROW()</f>
         <v>104</v>
       </c>
       <c r="D104" s="44"/>
       <c r="I104" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K104" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L104" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="43.2">
       <c r="A105">
         <f>ROW()</f>
         <v>105</v>
       </c>
       <c r="D105" s="44"/>
       <c r="I105" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K105" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L105" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="43.2">
       <c r="A106">
         <f>ROW()</f>
         <v>106</v>
       </c>
       <c r="D106" s="44"/>
       <c r="I106" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K106" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L106" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="43.2">
       <c r="A107">
         <f>ROW()</f>
         <v>107</v>
       </c>
       <c r="D107" s="44"/>
       <c r="I107" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K107" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L107" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="43.2">
       <c r="A108">
         <f>ROW()</f>
         <v>108</v>
       </c>
       <c r="D108" s="44"/>
       <c r="I108" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K108" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L108" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Cắt 3xFCO 
-Tiếp địa trung thế tại trụ 
-Tiếp địa hạ thế tại trụ TBA </v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="45">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="43.2">
       <c r="A109">
         <f>ROW()</f>
         <v>109</v>
       </c>
       <c r="D109" s="44"/>
       <c r="I109" s="63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="K109" s="61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
       <c r="L109" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="43.2">
+      <c r="A110">
+        <f>ROW()</f>
+        <v>110</v>
+      </c>
+      <c r="D110" s="44"/>
+      <c r="I110" s="63" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
+      <c r="K110" s="61" t="str">
         <f t="shared" si="32"/>
         <v xml:space="preserve">Cắt 3xFCO 
 Tiếp địa trung thế tại trụ 
 Tiếp địa hạ thế tại trụ TBA </v>
       </c>
+      <c r="L110" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Cắt 3xFCO 
+Tiếp địa trung thế tại trụ 
+Tiếp địa hạ thế tại trụ TBA </v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y109"/>
-  <conditionalFormatting sqref="T1:U1 T24 T26:T33 T37 T18:T21">
+  <autoFilter ref="A1:Y110" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <conditionalFormatting sqref="T1:U1 T25 T27:T34 T38 T19:T22">
     <cfRule type="cellIs" dxfId="20" priority="26" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T22">
+  <conditionalFormatting sqref="T23">
     <cfRule type="cellIs" dxfId="19" priority="25" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25">
+  <conditionalFormatting sqref="T26">
     <cfRule type="cellIs" dxfId="18" priority="24" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R41 R37 R1 R39 R18:R22 R24:R33 R53:R1048576">
+  <conditionalFormatting sqref="R42 R38 R1 R40 R19:R23 R25:R34 R54:R1048576">
     <cfRule type="duplicateValues" dxfId="17" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T34">
+  <conditionalFormatting sqref="T35">
     <cfRule type="cellIs" dxfId="16" priority="22" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R34">
+  <conditionalFormatting sqref="R35">
     <cfRule type="duplicateValues" dxfId="15" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T35">
+  <conditionalFormatting sqref="T36">
     <cfRule type="cellIs" dxfId="14" priority="20" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R35">
+  <conditionalFormatting sqref="R36">
     <cfRule type="duplicateValues" dxfId="13" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T36">
+  <conditionalFormatting sqref="T37">
     <cfRule type="cellIs" dxfId="12" priority="18" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R36">
+  <conditionalFormatting sqref="R37">
     <cfRule type="duplicateValues" dxfId="11" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T38">
+  <conditionalFormatting sqref="T39">
     <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R38">
+  <conditionalFormatting sqref="R39">
     <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T40">
+  <conditionalFormatting sqref="T41">
     <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R40">
+  <conditionalFormatting sqref="R41">
     <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T23">
+  <conditionalFormatting sqref="T24">
     <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R23">
+  <conditionalFormatting sqref="R24">
     <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R42">
+  <conditionalFormatting sqref="R43">
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R43">
+  <conditionalFormatting sqref="R44">
     <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R44">
+  <conditionalFormatting sqref="R45">
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R45">
+  <conditionalFormatting sqref="R46">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R46:R52">
+  <conditionalFormatting sqref="R47:R53">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10298,7 +10567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10307,15 +10576,15 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.7109375" customWidth="1"/>
-    <col min="4" max="4" width="75.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.6640625" customWidth="1"/>
+    <col min="4" max="4" width="75.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="36" customFormat="1" ht="45">
+    <row r="1" spans="1:5" s="36" customFormat="1" ht="43.2">
       <c r="B1" s="36" t="s">
         <v>225</v>
       </c>
@@ -10684,19 +10953,19 @@
       </c>
       <c r="B18" t="e">
         <f>" ngày "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"dd")&amp;" tháng "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"MM")&amp;" năm "&amp;TEXT(VLOOKUP(ROW(),KSHT,'Merge-PATC'!B$2,0),"yyyy")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C18" t="e">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Thay dây hạ thế  sau TBA Nam Hà 1A</v>
-      </c>
-      <c r="D18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D18" t="e">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Lưới điện hạ thế thuộc trạm Nam Hà 1A</v>
+        <v>#N/A</v>
       </c>
       <c r="E18" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -10710,15 +10979,16 @@
       </c>
       <c r="C19" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Thay dây hạ thế  sau TBA Nam Hà 1</v>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 1A</v>
       </c>
       <c r="D19" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v> Lưới hạ thế thuộc trạm Nam Hà 1</v>
-      </c>
-      <c r="E19" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+        <v>Lưới điện hạ thế thuộc trạm Nam Hà 1A</v>
+      </c>
+      <c r="E19" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 1A
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1A</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -10732,15 +11002,17 @@
       </c>
       <c r="C20" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Thay dây hạ thế  sau TBA Nam Hà 3</v>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 1</v>
       </c>
       <c r="D20" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Lưới điện hạ thế thuộc trạm Nam Hà 3</v>
-      </c>
-      <c r="E20" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+        <v> Lưới hạ thế thuộc trạm Nam Hà 1</v>
+      </c>
+      <c r="E20" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v xml:space="preserve">Cắt FCO + MCCB TBA Nam Hà 1
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 1
+ </v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -10754,15 +11026,16 @@
       </c>
       <c r="C21" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Thay dây hạ thế  sau TBA Xuân Tây 10A</v>
+        <v>Thay dây hạ thế  sau TBA Nam Hà 3</v>
       </c>
       <c r="D21" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Đường dây hạ thế thuộc trạm biến áp Xuân Tây 10A</v>
-      </c>
-      <c r="E21" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+        <v>Lưới điện hạ thế thuộc trạm Nam Hà 3</v>
+      </c>
+      <c r="E21" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt FCO + MCCB TBA Nam Hà 3
+Tiếp địa hạ thế tại MCCB TBA Nam Hà 3</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -10776,15 +11049,16 @@
       </c>
       <c r="C22" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Thay dây hạ thế  sau TBA Sông Ray 8A</v>
+        <v>Thay dây hạ thế  sau TBA Xuân Tây 10A</v>
       </c>
       <c r="D22" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Đường dây hạ thế thuộc Trạm Sông Ray 8A</v>
-      </c>
-      <c r="E22" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+        <v>Đường dây hạ thế thuộc trạm biến áp Xuân Tây 10A</v>
+      </c>
+      <c r="E22" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt FCO + MCCB TBA Xuân Tây 10A
+Tiếp địa hạ thế tại MCCB TBA Xuân Tây 10A</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -10798,15 +11072,16 @@
       </c>
       <c r="C23" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A</v>
+        <v>Thay dây hạ thế  sau TBA Sông Ray 8A</v>
       </c>
       <c r="D23" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Tại trạm biến áp Sông Ray 7</v>
-      </c>
-      <c r="E23" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+        <v>Đường dây hạ thế thuộc Trạm Sông Ray 8A</v>
+      </c>
+      <c r="E23" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt FCO + MCCB TBA Sông Ray 8A
+Tiếp địa hạ thế tại MCCB TBA Sông Ray 8A</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -10820,15 +11095,19 @@
       </c>
       <c r="C24" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!C$2,0)</f>
-        <v>Tách lưới, sang tải TBA  Sông Ray 7 sang TBA  Sông Ray 7A, đấu nối máy biến áp</v>
+        <v>Nâng cấp đường dây hạ thế và TBA Sông Ray 7 từ 1 pha lên 3 pha, cấy TBA Sông Ray 7A</v>
       </c>
       <c r="D24" t="str">
         <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!D$2,0)</f>
-        <v>Tại trạm biến áp Sông Ray 7A</v>
-      </c>
-      <c r="E24" t="e">
-        <f ca="1">VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
-        <v>#NAME?</v>
+        <v>Tại trạm biến áp Sông Ray 7</v>
+      </c>
+      <c r="E24" t="str">
+        <f>VLOOKUP(ROW(),KSHT,'Merge-PATC'!E$2,0)</f>
+        <v>Cắt LBS khí Đồng Tâm 1 + 3 LTD Đồng Tâm 1
+Cắt LBS khí Sông Ray + 3 LTD Sông Ray 1
+Tiếp địa trụ trung thế 357 
+Tiếp địa trụ trung thế 381 
+Tiếp địa hạ thế TBA Sông Ray 7</v>
       </c>
     </row>
   </sheetData>
